--- a/macro_credit_timeseries.xlsx
+++ b/macro_credit_timeseries.xlsx
@@ -11811,7 +11811,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FRED TDSP (quarterly) — Household Debt Service Payments as a Percent of Disposable Personal Income (%).</t>
+          <t>FRED TDSP (quarterly) — Household Debt Service Payments as % of Disposable Personal Income (%).</t>
         </is>
       </c>
     </row>

--- a/macro_credit_timeseries.xlsx
+++ b/macro_credit_timeseries.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F695"/>
+  <dimension ref="A1:G695"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,6 +465,11 @@
           <t>REVOLSL_bil_usd</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>DRSFRMACBS_pct</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -479,6 +484,7 @@
       <c r="F2" t="n">
         <v>1316.77</v>
       </c>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -493,6 +499,7 @@
       <c r="F3" t="n">
         <v>1358.78</v>
       </c>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -507,6 +514,7 @@
       <c r="F4" t="n">
         <v>1412.75</v>
       </c>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -521,6 +529,7 @@
       <c r="F5" t="n">
         <v>1477.66</v>
       </c>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -535,6 +544,7 @@
       <c r="F6" t="n">
         <v>1538.42</v>
       </c>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -549,6 +559,7 @@
       <c r="F7" t="n">
         <v>1614.48</v>
       </c>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -563,6 +574,7 @@
       <c r="F8" t="n">
         <v>1685.67</v>
       </c>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -577,6 +589,7 @@
       <c r="F9" t="n">
         <v>1769.11</v>
       </c>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -591,6 +604,7 @@
       <c r="F10" t="n">
         <v>1839.73</v>
       </c>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -605,6 +619,7 @@
       <c r="F11" t="n">
         <v>1955.13</v>
       </c>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -619,6 +634,7 @@
       <c r="F12" t="n">
         <v>1997.21</v>
       </c>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -633,6 +649,7 @@
       <c r="F13" t="n">
         <v>2041.54</v>
       </c>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -647,6 +664,7 @@
       <c r="F14" t="n">
         <v>2137.51</v>
       </c>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -661,6 +679,7 @@
       <c r="F15" t="n">
         <v>2216.34</v>
       </c>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -675,6 +694,7 @@
       <c r="F16" t="n">
         <v>2307.7</v>
       </c>
+      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -689,6 +709,7 @@
       <c r="F17" t="n">
         <v>2438.57</v>
       </c>
+      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -703,6 +724,7 @@
       <c r="F18" t="n">
         <v>2593.69</v>
       </c>
+      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -717,6 +739,7 @@
       <c r="F19" t="n">
         <v>2727.96</v>
       </c>
+      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -731,6 +754,7 @@
       <c r="F20" t="n">
         <v>2863.67</v>
       </c>
+      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -745,6 +769,7 @@
       <c r="F21" t="n">
         <v>2997.2</v>
       </c>
+      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -759,6 +784,7 @@
       <c r="F22" t="n">
         <v>3158.96</v>
       </c>
+      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -773,6 +799,7 @@
       <c r="F23" t="n">
         <v>3326.94</v>
       </c>
+      <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -787,6 +814,7 @@
       <c r="F24" t="n">
         <v>3463.95</v>
       </c>
+      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -801,6 +829,7 @@
       <c r="F25" t="n">
         <v>3604.84</v>
       </c>
+      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -815,6 +844,7 @@
       <c r="F26" t="n">
         <v>3693.21</v>
       </c>
+      <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -829,6 +859,7 @@
       <c r="F27" t="n">
         <v>3802.58</v>
       </c>
+      <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -843,6 +874,7 @@
       <c r="F28" t="n">
         <v>3908.14</v>
       </c>
+      <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -857,6 +889,7 @@
       <c r="F29" t="n">
         <v>4033.54</v>
       </c>
+      <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -871,6 +904,7 @@
       <c r="F30" t="n">
         <v>4137.9</v>
       </c>
+      <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -885,6 +919,7 @@
       <c r="F31" t="n">
         <v>4280.08</v>
       </c>
+      <c r="G31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -899,6 +934,7 @@
       <c r="F32" t="n">
         <v>4422.89</v>
       </c>
+      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -913,6 +949,7 @@
       <c r="F33" t="n">
         <v>4542.39</v>
       </c>
+      <c r="G33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -927,6 +964,7 @@
       <c r="F34" t="n">
         <v>4686.66</v>
       </c>
+      <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -941,6 +979,7 @@
       <c r="F35" t="n">
         <v>4835.92</v>
       </c>
+      <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -955,6 +994,7 @@
       <c r="F36" t="n">
         <v>4914.97</v>
       </c>
+      <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -969,6 +1009,7 @@
       <c r="F37" t="n">
         <v>4961.46</v>
       </c>
+      <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -983,6 +1024,7 @@
       <c r="F38" t="n">
         <v>7168.98</v>
       </c>
+      <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -997,6 +1039,7 @@
       <c r="F39" t="n">
         <v>7232.87</v>
       </c>
+      <c r="G39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1011,6 +1054,7 @@
       <c r="F40" t="n">
         <v>7297.56</v>
       </c>
+      <c r="G40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1025,6 +1069,7 @@
       <c r="F41" t="n">
         <v>7459.91</v>
       </c>
+      <c r="G41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1039,6 +1084,7 @@
       <c r="F42" t="n">
         <v>7642.01</v>
       </c>
+      <c r="G42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1053,6 +1099,7 @@
       <c r="F43" t="n">
         <v>7739.85</v>
       </c>
+      <c r="G43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1067,6 +1114,7 @@
       <c r="F44" t="n">
         <v>7900.86</v>
       </c>
+      <c r="G44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1081,6 +1129,7 @@
       <c r="F45" t="n">
         <v>8044.78</v>
       </c>
+      <c r="G45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1095,6 +1144,7 @@
       <c r="F46" t="n">
         <v>8230.75</v>
       </c>
+      <c r="G46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1109,6 +1159,7 @@
       <c r="F47" t="n">
         <v>8313.58</v>
       </c>
+      <c r="G47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1123,6 +1174,7 @@
       <c r="F48" t="n">
         <v>8305.860000000001</v>
       </c>
+      <c r="G48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1137,6 +1189,7 @@
       <c r="F49" t="n">
         <v>8245.33</v>
       </c>
+      <c r="G49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1151,6 +1204,7 @@
       <c r="F50" t="n">
         <v>8092.01</v>
       </c>
+      <c r="G50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1165,6 +1219,7 @@
       <c r="F51" t="n">
         <v>8093.82</v>
       </c>
+      <c r="G51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1179,6 +1234,7 @@
       <c r="F52" t="n">
         <v>8235.299999999999</v>
       </c>
+      <c r="G52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1193,6 +1249,7 @@
       <c r="F53" t="n">
         <v>8427.950000000001</v>
       </c>
+      <c r="G53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1207,6 +1264,7 @@
       <c r="F54" t="n">
         <v>8578.25</v>
       </c>
+      <c r="G54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1221,6 +1279,7 @@
       <c r="F55" t="n">
         <v>8785.709999999999</v>
       </c>
+      <c r="G55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1235,6 +1294,7 @@
       <c r="F56" t="n">
         <v>8957.98</v>
       </c>
+      <c r="G56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1249,6 +1309,7 @@
       <c r="F57" t="n">
         <v>9133.16</v>
       </c>
+      <c r="G57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1263,6 +1324,7 @@
       <c r="F58" t="n">
         <v>9307.74</v>
       </c>
+      <c r="G58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1277,6 +1339,7 @@
       <c r="F59" t="n">
         <v>9390.08</v>
       </c>
+      <c r="G59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1291,6 +1354,7 @@
       <c r="F60" t="n">
         <v>9401.799999999999</v>
       </c>
+      <c r="G60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1305,6 +1369,7 @@
       <c r="F61" t="n">
         <v>9379.24</v>
       </c>
+      <c r="G61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1319,6 +1384,7 @@
       <c r="F62" t="n">
         <v>9380.860000000001</v>
       </c>
+      <c r="G62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1333,6 +1399,7 @@
       <c r="F63" t="n">
         <v>9505.709999999999</v>
       </c>
+      <c r="G63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1347,6 +1414,7 @@
       <c r="F64" t="n">
         <v>9655.66</v>
       </c>
+      <c r="G64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1361,6 +1429,7 @@
       <c r="F65" t="n">
         <v>9824.85</v>
       </c>
+      <c r="G65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1375,6 +1444,7 @@
       <c r="F66" t="n">
         <v>10043.68</v>
       </c>
+      <c r="G66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1389,6 +1459,7 @@
       <c r="F67" t="n">
         <v>10347.07</v>
       </c>
+      <c r="G67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1403,6 +1474,7 @@
       <c r="F68" t="n">
         <v>10530.74</v>
       </c>
+      <c r="G68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1417,6 +1489,7 @@
       <c r="F69" t="n">
         <v>10800.76</v>
       </c>
+      <c r="G69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1431,6 +1504,7 @@
       <c r="F70" t="n">
         <v>10933.55</v>
       </c>
+      <c r="G70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1445,6 +1519,7 @@
       <c r="F71" t="n">
         <v>11187.7</v>
       </c>
+      <c r="G71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1459,6 +1534,7 @@
       <c r="F72" t="n">
         <v>11362.28</v>
       </c>
+      <c r="G72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1473,6 +1549,7 @@
       <c r="F73" t="n">
         <v>11342.22</v>
       </c>
+      <c r="G73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1487,6 +1564,7 @@
       <c r="F74" t="n">
         <v>11326.78</v>
       </c>
+      <c r="G74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1501,6 +1579,7 @@
       <c r="F75" t="n">
         <v>11326.44</v>
       </c>
+      <c r="G75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1515,6 +1594,7 @@
       <c r="F76" t="n">
         <v>11377</v>
       </c>
+      <c r="G76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1529,6 +1609,7 @@
       <c r="F77" t="n">
         <v>11582.43</v>
       </c>
+      <c r="G77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1543,6 +1624,7 @@
       <c r="F78" t="n">
         <v>11952.53</v>
       </c>
+      <c r="G78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1557,6 +1639,7 @@
       <c r="F79" t="n">
         <v>12289.55</v>
       </c>
+      <c r="G79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1571,6 +1654,7 @@
       <c r="F80" t="n">
         <v>12651.67</v>
       </c>
+      <c r="G80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1585,6 +1669,7 @@
       <c r="F81" t="n">
         <v>13026.68</v>
       </c>
+      <c r="G81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1599,6 +1684,7 @@
       <c r="F82" t="n">
         <v>13250.92</v>
       </c>
+      <c r="G82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -1613,6 +1699,7 @@
       <c r="F83" t="n">
         <v>13530.65</v>
       </c>
+      <c r="G83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1627,6 +1714,7 @@
       <c r="F84" t="n">
         <v>13575.61</v>
       </c>
+      <c r="G84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1641,6 +1729,7 @@
       <c r="F85" t="n">
         <v>13241.26</v>
       </c>
+      <c r="G85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -1655,6 +1744,7 @@
       <c r="F86" t="n">
         <v>13274.85</v>
       </c>
+      <c r="G86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -1669,6 +1759,7 @@
       <c r="F87" t="n">
         <v>13221.56</v>
       </c>
+      <c r="G87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -1683,6 +1774,7 @@
       <c r="F88" t="n">
         <v>13177.87</v>
       </c>
+      <c r="G88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -1697,6 +1789,7 @@
       <c r="F89" t="n">
         <v>13342.63</v>
       </c>
+      <c r="G89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -1711,6 +1804,7 @@
       <c r="F90" t="n">
         <v>13453.92</v>
       </c>
+      <c r="G90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -1725,6 +1819,7 @@
       <c r="F91" t="n">
         <v>13590.96</v>
       </c>
+      <c r="G91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -1739,6 +1834,7 @@
       <c r="F92" t="n">
         <v>13885.67</v>
       </c>
+      <c r="G92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -1753,6 +1849,7 @@
       <c r="F93" t="n">
         <v>14167.55</v>
       </c>
+      <c r="G93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -1767,6 +1864,7 @@
       <c r="F94" t="n">
         <v>14490.56</v>
       </c>
+      <c r="G94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -1781,6 +1879,7 @@
       <c r="F95" t="n">
         <v>14811.04</v>
       </c>
+      <c r="G95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -1795,6 +1894,7 @@
       <c r="F96" t="n">
         <v>14703.24</v>
       </c>
+      <c r="G96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -1809,6 +1909,7 @@
       <c r="F97" t="n">
         <v>14495.27</v>
       </c>
+      <c r="G97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -1823,6 +1924,7 @@
       <c r="F98" t="n">
         <v>14432.58</v>
       </c>
+      <c r="G98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -1837,6 +1939,7 @@
       <c r="F99" t="n">
         <v>14350.37</v>
       </c>
+      <c r="G99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -1851,6 +1954,7 @@
       <c r="F100" t="n">
         <v>14314.1</v>
       </c>
+      <c r="G100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -1865,6 +1969,7 @@
       <c r="F101" t="n">
         <v>14596.04</v>
       </c>
+      <c r="G101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -1879,6 +1984,7 @@
       <c r="F102" t="n">
         <v>14801.5</v>
       </c>
+      <c r="G102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -1893,6 +1999,7 @@
       <c r="F103" t="n">
         <v>15085.81</v>
       </c>
+      <c r="G103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -1907,6 +2014,7 @@
       <c r="F104" t="n">
         <v>15585.4</v>
       </c>
+      <c r="G104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -1921,6 +2029,7 @@
       <c r="F105" t="n">
         <v>15900.54</v>
       </c>
+      <c r="G105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -1935,6 +2044,7 @@
       <c r="F106" t="n">
         <v>16352.92</v>
       </c>
+      <c r="G106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -1949,6 +2059,7 @@
       <c r="F107" t="n">
         <v>16747.19</v>
       </c>
+      <c r="G107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -1963,6 +2074,7 @@
       <c r="F108" t="n">
         <v>16705.57</v>
       </c>
+      <c r="G108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -1977,6 +2089,7 @@
       <c r="F109" t="n">
         <v>16489.05</v>
       </c>
+      <c r="G109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -1991,6 +2104,7 @@
       <c r="F110" t="n">
         <v>30683.63</v>
       </c>
+      <c r="G110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -2005,6 +2119,7 @@
       <c r="F111" t="n">
         <v>30533.9</v>
       </c>
+      <c r="G111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -2019,6 +2134,7 @@
       <c r="F112" t="n">
         <v>30997.94</v>
       </c>
+      <c r="G112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -2033,6 +2149,7 @@
       <c r="F113" t="n">
         <v>31817.66</v>
       </c>
+      <c r="G113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -2047,6 +2164,7 @@
       <c r="F114" t="n">
         <v>32685.31</v>
       </c>
+      <c r="G114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -2061,6 +2179,7 @@
       <c r="F115" t="n">
         <v>33430.02</v>
       </c>
+      <c r="G115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -2075,6 +2194,7 @@
       <c r="F116" t="n">
         <v>33966.85</v>
       </c>
+      <c r="G116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -2089,6 +2209,7 @@
       <c r="F117" t="n">
         <v>34605.8</v>
       </c>
+      <c r="G117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -2103,6 +2224,7 @@
       <c r="F118" t="n">
         <v>35373.81</v>
       </c>
+      <c r="G118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -2117,6 +2239,7 @@
       <c r="F119" t="n">
         <v>36473.74</v>
       </c>
+      <c r="G119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -2131,6 +2254,7 @@
       <c r="F120" t="n">
         <v>36979.17</v>
       </c>
+      <c r="G120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -2145,6 +2269,7 @@
       <c r="F121" t="n">
         <v>37414.82</v>
       </c>
+      <c r="G121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -2159,6 +2284,7 @@
       <c r="F122" t="n">
         <v>36924.59</v>
       </c>
+      <c r="G122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -2173,6 +2299,7 @@
       <c r="F123" t="n">
         <v>36894.21</v>
       </c>
+      <c r="G123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -2187,6 +2314,7 @@
       <c r="F124" t="n">
         <v>37479.17</v>
       </c>
+      <c r="G124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -2201,6 +2329,7 @@
       <c r="F125" t="n">
         <v>38343.03</v>
       </c>
+      <c r="G125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -2215,6 +2344,7 @@
       <c r="F126" t="n">
         <v>39351.16</v>
       </c>
+      <c r="G126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -2229,6 +2359,7 @@
       <c r="F127" t="n">
         <v>40546.99</v>
       </c>
+      <c r="G127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -2243,6 +2374,7 @@
       <c r="F128" t="n">
         <v>41535.08</v>
       </c>
+      <c r="G128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -2257,6 +2389,7 @@
       <c r="F129" t="n">
         <v>42481.86</v>
       </c>
+      <c r="G129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -2271,6 +2404,7 @@
       <c r="F130" t="n">
         <v>43510.36</v>
       </c>
+      <c r="G130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -2285,6 +2419,7 @@
       <c r="F131" t="n">
         <v>44445.07</v>
       </c>
+      <c r="G131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -2299,6 +2434,7 @@
       <c r="F132" t="n">
         <v>45040.68</v>
       </c>
+      <c r="G132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -2313,6 +2449,7 @@
       <c r="F133" t="n">
         <v>45690.95</v>
       </c>
+      <c r="G133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -2327,6 +2464,7 @@
       <c r="F134" t="n">
         <v>45587.99</v>
       </c>
+      <c r="G134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -2341,6 +2479,7 @@
       <c r="F135" t="n">
         <v>45807.13</v>
       </c>
+      <c r="G135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -2355,6 +2494,7 @@
       <c r="F136" t="n">
         <v>46369.7</v>
       </c>
+      <c r="G136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -2369,6 +2509,7 @@
       <c r="F137" t="n">
         <v>47389.97</v>
       </c>
+      <c r="G137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -2383,6 +2524,7 @@
       <c r="F138" t="n">
         <v>48520.36</v>
       </c>
+      <c r="G138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -2397,6 +2539,7 @@
       <c r="F139" t="n">
         <v>49405.27</v>
       </c>
+      <c r="G139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -2411,6 +2554,7 @@
       <c r="F140" t="n">
         <v>50130.61</v>
       </c>
+      <c r="G140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -2425,6 +2569,7 @@
       <c r="F141" t="n">
         <v>51271.47</v>
       </c>
+      <c r="G141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -2439,6 +2584,7 @@
       <c r="F142" t="n">
         <v>52076.21</v>
       </c>
+      <c r="G142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -2453,6 +2599,7 @@
       <c r="F143" t="n">
         <v>53180.7</v>
       </c>
+      <c r="G143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -2467,6 +2614,7 @@
       <c r="F144" t="n">
         <v>53915.02</v>
       </c>
+      <c r="G144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -2481,6 +2629,7 @@
       <c r="F145" t="n">
         <v>53596.43</v>
       </c>
+      <c r="G145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -2497,6 +2646,7 @@
       <c r="F146" t="n">
         <v>53749.77</v>
       </c>
+      <c r="G146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -2511,6 +2661,7 @@
       <c r="F147" t="n">
         <v>54129.13</v>
       </c>
+      <c r="G147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -2525,6 +2676,7 @@
       <c r="F148" t="n">
         <v>54139.08</v>
       </c>
+      <c r="G148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -2541,6 +2693,7 @@
       <c r="F149" t="n">
         <v>53960.04</v>
       </c>
+      <c r="G149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -2555,6 +2708,7 @@
       <c r="F150" t="n">
         <v>53982.82</v>
       </c>
+      <c r="G150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -2569,6 +2723,7 @@
       <c r="F151" t="n">
         <v>53784.12</v>
       </c>
+      <c r="G151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -2585,6 +2740,7 @@
       <c r="F152" t="n">
         <v>54051.61</v>
       </c>
+      <c r="G152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -2599,6 +2755,7 @@
       <c r="F153" t="n">
         <v>54414.11</v>
       </c>
+      <c r="G153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -2613,6 +2770,7 @@
       <c r="F154" t="n">
         <v>54391.28</v>
       </c>
+      <c r="G154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -2629,6 +2787,7 @@
       <c r="F155" t="n">
         <v>54357.3</v>
       </c>
+      <c r="G155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -2643,6 +2802,7 @@
       <c r="F156" t="n">
         <v>54445.86</v>
       </c>
+      <c r="G156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -2657,6 +2817,7 @@
       <c r="F157" t="n">
         <v>54970.05</v>
       </c>
+      <c r="G157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -2673,6 +2834,7 @@
       <c r="F158" t="n">
         <v>55491.18</v>
       </c>
+      <c r="G158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -2687,6 +2849,7 @@
       <c r="F159" t="n">
         <v>55811.35</v>
       </c>
+      <c r="G159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -2701,6 +2864,7 @@
       <c r="F160" t="n">
         <v>56282.22</v>
       </c>
+      <c r="G160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -2717,6 +2881,7 @@
       <c r="F161" t="n">
         <v>57125.32</v>
       </c>
+      <c r="G161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -2731,6 +2896,7 @@
       <c r="F162" t="n">
         <v>57767.16</v>
       </c>
+      <c r="G162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -2745,6 +2911,7 @@
       <c r="F163" t="n">
         <v>58742.01</v>
       </c>
+      <c r="G163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -2761,6 +2928,7 @@
       <c r="F164" t="n">
         <v>59044.7</v>
       </c>
+      <c r="G164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -2775,6 +2943,7 @@
       <c r="F165" t="n">
         <v>59299.19</v>
       </c>
+      <c r="G165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -2789,6 +2958,7 @@
       <c r="F166" t="n">
         <v>60194.75</v>
       </c>
+      <c r="G166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -2805,6 +2975,7 @@
       <c r="F167" t="n">
         <v>60627.36</v>
       </c>
+      <c r="G167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -2819,6 +2990,7 @@
       <c r="F168" t="n">
         <v>60757.36</v>
       </c>
+      <c r="G168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -2833,6 +3005,7 @@
       <c r="F169" t="n">
         <v>60928</v>
       </c>
+      <c r="G169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -2849,6 +3022,7 @@
       <c r="F170" t="n">
         <v>61196.1</v>
       </c>
+      <c r="G170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -2863,6 +3037,7 @@
       <c r="F171" t="n">
         <v>61468.81</v>
       </c>
+      <c r="G171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -2877,6 +3052,7 @@
       <c r="F172" t="n">
         <v>61625.25</v>
       </c>
+      <c r="G172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -2893,6 +3069,7 @@
       <c r="F173" t="n">
         <v>62254.83</v>
       </c>
+      <c r="G173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -2907,6 +3084,7 @@
       <c r="F174" t="n">
         <v>62849.21</v>
       </c>
+      <c r="G174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -2921,6 +3099,7 @@
       <c r="F175" t="n">
         <v>63485.42</v>
       </c>
+      <c r="G175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -2937,6 +3116,7 @@
       <c r="F176" t="n">
         <v>64340.66</v>
       </c>
+      <c r="G176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -2951,6 +3131,7 @@
       <c r="F177" t="n">
         <v>64804.38</v>
       </c>
+      <c r="G177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -2965,6 +3146,7 @@
       <c r="F178" t="n">
         <v>65141.16</v>
       </c>
+      <c r="G178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -2981,6 +3163,7 @@
       <c r="F179" t="n">
         <v>65446.13</v>
       </c>
+      <c r="G179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -2995,6 +3178,7 @@
       <c r="F180" t="n">
         <v>65640.31</v>
       </c>
+      <c r="G180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -3009,6 +3193,7 @@
       <c r="F181" t="n">
         <v>66348.3</v>
       </c>
+      <c r="G181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -3025,6 +3210,7 @@
       <c r="F182" t="n">
         <v>66726.23</v>
       </c>
+      <c r="G182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -3039,6 +3225,7 @@
       <c r="F183" t="n">
         <v>66756.2</v>
       </c>
+      <c r="G183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -3053,6 +3240,7 @@
       <c r="F184" t="n">
         <v>67541.53999999999</v>
       </c>
+      <c r="G184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -3069,6 +3257,7 @@
       <c r="F185" t="n">
         <v>68403.34</v>
       </c>
+      <c r="G185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -3083,6 +3272,7 @@
       <c r="F186" t="n">
         <v>68885.53</v>
       </c>
+      <c r="G186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -3097,6 +3287,7 @@
       <c r="F187" t="n">
         <v>70280.8</v>
       </c>
+      <c r="G187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -3113,6 +3304,7 @@
       <c r="F188" t="n">
         <v>71540.34</v>
       </c>
+      <c r="G188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -3127,6 +3319,7 @@
       <c r="F189" t="n">
         <v>72565.92999999999</v>
       </c>
+      <c r="G189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -3141,6 +3334,7 @@
       <c r="F190" t="n">
         <v>73563.89</v>
       </c>
+      <c r="G190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -3157,6 +3351,7 @@
       <c r="F191" t="n">
         <v>75122.16</v>
       </c>
+      <c r="G191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -3171,6 +3366,7 @@
       <c r="F192" t="n">
         <v>76786.94</v>
       </c>
+      <c r="G192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -3185,6 +3381,7 @@
       <c r="F193" t="n">
         <v>79027.25</v>
       </c>
+      <c r="G193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -3201,6 +3398,7 @@
       <c r="F194" t="n">
         <v>79113.94</v>
       </c>
+      <c r="G194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -3215,6 +3413,7 @@
       <c r="F195" t="n">
         <v>80704.49000000001</v>
       </c>
+      <c r="G195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -3229,6 +3428,7 @@
       <c r="F196" t="n">
         <v>83057.09</v>
       </c>
+      <c r="G196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -3245,6 +3445,7 @@
       <c r="F197" t="n">
         <v>84327.07000000001</v>
       </c>
+      <c r="G197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -3259,6 +3460,7 @@
       <c r="F198" t="n">
         <v>87090.05</v>
       </c>
+      <c r="G198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -3273,6 +3475,7 @@
       <c r="F199" t="n">
         <v>89418.95</v>
       </c>
+      <c r="G199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -3289,6 +3492,7 @@
       <c r="F200" t="n">
         <v>90385.67</v>
       </c>
+      <c r="G200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -3303,6 +3507,7 @@
       <c r="F201" t="n">
         <v>92431.69</v>
       </c>
+      <c r="G201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -3317,6 +3522,7 @@
       <c r="F202" t="n">
         <v>94471.91</v>
       </c>
+      <c r="G202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -3333,6 +3539,7 @@
       <c r="F203" t="n">
         <v>96233.11</v>
       </c>
+      <c r="G203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -3347,6 +3554,7 @@
       <c r="F204" t="n">
         <v>98135.89999999999</v>
       </c>
+      <c r="G204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -3361,6 +3569,7 @@
       <c r="F205" t="n">
         <v>100385.63</v>
       </c>
+      <c r="G205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -3379,6 +3588,7 @@
       <c r="F206" t="n">
         <v>102841.83</v>
       </c>
+      <c r="G206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -3393,6 +3603,7 @@
       <c r="F207" t="n">
         <v>105340.46</v>
       </c>
+      <c r="G207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -3407,6 +3618,7 @@
       <c r="F208" t="n">
         <v>107950.35</v>
       </c>
+      <c r="G208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -3425,6 +3637,7 @@
       <c r="F209" t="n">
         <v>110068.39</v>
       </c>
+      <c r="G209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -3439,6 +3652,7 @@
       <c r="F210" t="n">
         <v>111156.29</v>
       </c>
+      <c r="G210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -3453,6 +3667,7 @@
       <c r="F211" t="n">
         <v>112395.48</v>
       </c>
+      <c r="G211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -3471,6 +3686,7 @@
       <c r="F212" t="n">
         <v>114134.31</v>
       </c>
+      <c r="G212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -3485,6 +3701,7 @@
       <c r="F213" t="n">
         <v>115993.7</v>
       </c>
+      <c r="G213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -3499,6 +3716,7 @@
       <c r="F214" t="n">
         <v>118336.14</v>
       </c>
+      <c r="G214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -3517,6 +3735,7 @@
       <c r="F215" t="n">
         <v>120236.06</v>
       </c>
+      <c r="G215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -3531,6 +3750,7 @@
       <c r="F216" t="n">
         <v>122546.42</v>
       </c>
+      <c r="G216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -3545,6 +3765,7 @@
       <c r="F217" t="n">
         <v>124465.8</v>
       </c>
+      <c r="G217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -3563,6 +3784,7 @@
       <c r="F218" t="n">
         <v>127088.32</v>
       </c>
+      <c r="G218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -3577,6 +3799,7 @@
       <c r="F219" t="n">
         <v>128797.56</v>
       </c>
+      <c r="G219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -3591,6 +3814,7 @@
       <c r="F220" t="n">
         <v>130177.99</v>
       </c>
+      <c r="G220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -3609,6 +3833,7 @@
       <c r="F221" t="n">
         <v>132040.35</v>
       </c>
+      <c r="G221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -3623,6 +3848,7 @@
       <c r="F222" t="n">
         <v>133599.11</v>
       </c>
+      <c r="G222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -3637,6 +3863,7 @@
       <c r="F223" t="n">
         <v>134409.45</v>
       </c>
+      <c r="G223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -3655,6 +3882,7 @@
       <c r="F224" t="n">
         <v>135661.07</v>
       </c>
+      <c r="G224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -3669,6 +3897,7 @@
       <c r="F225" t="n">
         <v>136858.57</v>
       </c>
+      <c r="G225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -3683,6 +3912,7 @@
       <c r="F226" t="n">
         <v>137247.37</v>
       </c>
+      <c r="G226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -3701,6 +3931,7 @@
       <c r="F227" t="n">
         <v>138906.54</v>
       </c>
+      <c r="G227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -3715,6 +3946,7 @@
       <c r="F228" t="n">
         <v>139963.12</v>
       </c>
+      <c r="G228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -3729,6 +3961,7 @@
       <c r="F229" t="n">
         <v>141068.15</v>
       </c>
+      <c r="G229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -3747,6 +3980,7 @@
       <c r="F230" t="n">
         <v>141107.87</v>
       </c>
+      <c r="G230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -3761,6 +3995,7 @@
       <c r="F231" t="n">
         <v>142423.95</v>
       </c>
+      <c r="G231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -3775,6 +4010,7 @@
       <c r="F232" t="n">
         <v>143101.73</v>
       </c>
+      <c r="G232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -3793,6 +4029,7 @@
       <c r="F233" t="n">
         <v>145491.85</v>
       </c>
+      <c r="G233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -3807,6 +4044,7 @@
       <c r="F234" t="n">
         <v>147306.5</v>
       </c>
+      <c r="G234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -3821,6 +4059,7 @@
       <c r="F235" t="n">
         <v>149833.79</v>
       </c>
+      <c r="G235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -3839,6 +4078,7 @@
       <c r="F236" t="n">
         <v>152397.41</v>
       </c>
+      <c r="G236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -3853,6 +4093,7 @@
       <c r="F237" t="n">
         <v>153871.2</v>
       </c>
+      <c r="G237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -3867,6 +4108,7 @@
       <c r="F238" t="n">
         <v>156460.89</v>
       </c>
+      <c r="G238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -3885,6 +4127,7 @@
       <c r="F239" t="n">
         <v>158074.33</v>
       </c>
+      <c r="G239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -3899,6 +4142,7 @@
       <c r="F240" t="n">
         <v>158018.95</v>
       </c>
+      <c r="G240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -3913,6 +4157,7 @@
       <c r="F241" t="n">
         <v>160853.91</v>
       </c>
+      <c r="G241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -3931,6 +4176,7 @@
       <c r="F242" t="n">
         <v>164681.9</v>
       </c>
+      <c r="G242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -3945,6 +4191,7 @@
       <c r="F243" t="n">
         <v>165957.33</v>
       </c>
+      <c r="G243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -3959,6 +4206,7 @@
       <c r="F244" t="n">
         <v>167525.9</v>
       </c>
+      <c r="G244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -3977,6 +4225,7 @@
       <c r="F245" t="n">
         <v>169090.73</v>
       </c>
+      <c r="G245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -3991,6 +4240,7 @@
       <c r="F246" t="n">
         <v>170749.58</v>
       </c>
+      <c r="G246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -4005,6 +4255,7 @@
       <c r="F247" t="n">
         <v>172963.18</v>
       </c>
+      <c r="G247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -4023,6 +4274,7 @@
       <c r="F248" t="n">
         <v>174019.27</v>
       </c>
+      <c r="G248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -4037,6 +4289,7 @@
       <c r="F249" t="n">
         <v>175868.92</v>
       </c>
+      <c r="G249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -4051,6 +4304,7 @@
       <c r="F250" t="n">
         <v>177480.12</v>
       </c>
+      <c r="G250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -4069,6 +4323,7 @@
       <c r="F251" t="n">
         <v>179832.14</v>
       </c>
+      <c r="G251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -4083,6 +4338,7 @@
       <c r="F252" t="n">
         <v>183011.11</v>
       </c>
+      <c r="G252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -4097,6 +4353,7 @@
       <c r="F253" t="n">
         <v>184593.12</v>
       </c>
+      <c r="G253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -4115,6 +4372,7 @@
       <c r="F254" t="n">
         <v>185723.07</v>
       </c>
+      <c r="G254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -4129,6 +4387,7 @@
       <c r="F255" t="n">
         <v>187614.8</v>
       </c>
+      <c r="G255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -4143,6 +4402,7 @@
       <c r="F256" t="n">
         <v>190924.09</v>
       </c>
+      <c r="G256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -4161,6 +4421,7 @@
       <c r="F257" t="n">
         <v>193141.59</v>
       </c>
+      <c r="G257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -4175,6 +4436,7 @@
       <c r="F258" t="n">
         <v>195155.98</v>
       </c>
+      <c r="G258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -4189,6 +4451,7 @@
       <c r="F259" t="n">
         <v>197683.95</v>
       </c>
+      <c r="G259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -4207,6 +4470,7 @@
       <c r="F260" t="n">
         <v>199528.82</v>
       </c>
+      <c r="G260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -4221,6 +4485,7 @@
       <c r="F261" t="n">
         <v>201862.61</v>
       </c>
+      <c r="G261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -4235,6 +4500,7 @@
       <c r="F262" t="n">
         <v>203176.98</v>
       </c>
+      <c r="G262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -4253,6 +4519,7 @@
       <c r="F263" t="n">
         <v>204925.86</v>
       </c>
+      <c r="G263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -4267,6 +4534,7 @@
       <c r="F264" t="n">
         <v>207625.3</v>
       </c>
+      <c r="G264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -4281,6 +4549,7 @@
       <c r="F265" t="n">
         <v>211229.83</v>
       </c>
+      <c r="G265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -4299,6 +4568,7 @@
       <c r="F266" t="n">
         <v>213647.44</v>
       </c>
+      <c r="G266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -4313,6 +4583,7 @@
       <c r="F267" t="n">
         <v>216504.57</v>
       </c>
+      <c r="G267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -4327,6 +4598,7 @@
       <c r="F268" t="n">
         <v>217589.37</v>
       </c>
+      <c r="G268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -4345,6 +4617,7 @@
       <c r="F269" t="n">
         <v>219769.62</v>
       </c>
+      <c r="G269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -4359,6 +4632,7 @@
       <c r="F270" t="n">
         <v>223276.19</v>
       </c>
+      <c r="G270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -4373,6 +4647,7 @@
       <c r="F271" t="n">
         <v>225664.82</v>
       </c>
+      <c r="G271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -4391,6 +4666,7 @@
       <c r="F272" t="n">
         <v>229586.26</v>
       </c>
+      <c r="G272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -4405,6 +4681,7 @@
       <c r="F273" t="n">
         <v>232414.91</v>
       </c>
+      <c r="G273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -4419,6 +4696,7 @@
       <c r="F274" t="n">
         <v>234725.03</v>
       </c>
+      <c r="G274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -4437,6 +4715,7 @@
       <c r="F275" t="n">
         <v>236170.64</v>
       </c>
+      <c r="G275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -4451,6 +4730,7 @@
       <c r="F276" t="n">
         <v>239294.12</v>
       </c>
+      <c r="G276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -4465,6 +4745,7 @@
       <c r="F277" t="n">
         <v>238642.62</v>
       </c>
+      <c r="G277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -4484,6 +4765,9 @@
       <c r="E278" t="inlineStr"/>
       <c r="F278" t="n">
         <v>238714.84</v>
+      </c>
+      <c r="G278" t="n">
+        <v>3.09</v>
       </c>
     </row>
     <row r="279">
@@ -4499,6 +4783,7 @@
       <c r="F279" t="n">
         <v>242288.12</v>
       </c>
+      <c r="G279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -4513,6 +4798,7 @@
       <c r="F280" t="n">
         <v>246840.76</v>
       </c>
+      <c r="G280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -4532,6 +4818,9 @@
       <c r="E281" t="inlineStr"/>
       <c r="F281" t="n">
         <v>248743.89</v>
+      </c>
+      <c r="G281" t="n">
+        <v>3.18</v>
       </c>
     </row>
     <row r="282">
@@ -4547,6 +4836,7 @@
       <c r="F282" t="n">
         <v>250931.03</v>
       </c>
+      <c r="G282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -4561,6 +4851,7 @@
       <c r="F283" t="n">
         <v>252246.44</v>
       </c>
+      <c r="G283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -4580,6 +4871,9 @@
       <c r="E284" t="inlineStr"/>
       <c r="F284" t="n">
         <v>253720.26</v>
+      </c>
+      <c r="G284" t="n">
+        <v>3.23</v>
       </c>
     </row>
     <row r="285">
@@ -4595,6 +4889,7 @@
       <c r="F285" t="n">
         <v>255892.74</v>
       </c>
+      <c r="G285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -4609,6 +4904,7 @@
       <c r="F286" t="n">
         <v>258812.22</v>
       </c>
+      <c r="G286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -4628,6 +4924,9 @@
       <c r="E287" t="inlineStr"/>
       <c r="F287" t="n">
         <v>261348.24</v>
+      </c>
+      <c r="G287" t="n">
+        <v>3.28</v>
       </c>
     </row>
     <row r="288">
@@ -4643,6 +4942,7 @@
       <c r="F288" t="n">
         <v>262777.28</v>
       </c>
+      <c r="G288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -4657,6 +4957,7 @@
       <c r="F289" t="n">
         <v>263768.55</v>
       </c>
+      <c r="G289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -4676,6 +4977,9 @@
       <c r="E290" t="inlineStr"/>
       <c r="F290" t="n">
         <v>265386.49</v>
+      </c>
+      <c r="G290" t="n">
+        <v>3.12</v>
       </c>
     </row>
     <row r="291">
@@ -4691,6 +4995,7 @@
       <c r="F291" t="n">
         <v>266482.13</v>
       </c>
+      <c r="G291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -4705,6 +5010,7 @@
       <c r="F292" t="n">
         <v>266755.7</v>
       </c>
+      <c r="G292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -4724,6 +5030,9 @@
       <c r="E293" t="inlineStr"/>
       <c r="F293" t="n">
         <v>267829.23</v>
+      </c>
+      <c r="G293" t="n">
+        <v>3.06</v>
       </c>
     </row>
     <row r="294">
@@ -4739,6 +5048,7 @@
       <c r="F294" t="n">
         <v>268751.8</v>
       </c>
+      <c r="G294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -4753,6 +5063,7 @@
       <c r="F295" t="n">
         <v>270707.63</v>
       </c>
+      <c r="G295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -4772,6 +5083,9 @@
       <c r="E296" t="inlineStr"/>
       <c r="F296" t="n">
         <v>270817.59</v>
+      </c>
+      <c r="G296" t="n">
+        <v>2.88</v>
       </c>
     </row>
     <row r="297">
@@ -4787,6 +5101,7 @@
       <c r="F297" t="n">
         <v>272080.5</v>
       </c>
+      <c r="G297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -4801,6 +5116,7 @@
       <c r="F298" t="n">
         <v>273176.96</v>
       </c>
+      <c r="G298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -4820,6 +5136,9 @@
       <c r="E299" t="inlineStr"/>
       <c r="F299" t="n">
         <v>275207.64</v>
+      </c>
+      <c r="G299" t="n">
+        <v>2.79</v>
       </c>
     </row>
     <row r="300">
@@ -4835,6 +5154,7 @@
       <c r="F300" t="n">
         <v>275459.75</v>
       </c>
+      <c r="G300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -4849,6 +5169,7 @@
       <c r="F301" t="n">
         <v>278449.67</v>
       </c>
+      <c r="G301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -4868,6 +5189,9 @@
       <c r="E302" t="inlineStr"/>
       <c r="F302" t="n">
         <v>280994.81</v>
+      </c>
+      <c r="G302" t="n">
+        <v>2.78</v>
       </c>
     </row>
     <row r="303">
@@ -4883,6 +5207,7 @@
       <c r="F303" t="n">
         <v>283531.25</v>
       </c>
+      <c r="G303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -4897,6 +5222,7 @@
       <c r="F304" t="n">
         <v>284890.41</v>
       </c>
+      <c r="G304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -4916,6 +5242,9 @@
       <c r="E305" t="inlineStr"/>
       <c r="F305" t="n">
         <v>286976.13</v>
+      </c>
+      <c r="G305" t="n">
+        <v>2.67</v>
       </c>
     </row>
     <row r="306">
@@ -4931,6 +5260,7 @@
       <c r="F306" t="n">
         <v>288470.63</v>
       </c>
+      <c r="G306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -4945,6 +5275,7 @@
       <c r="F307" t="n">
         <v>289961.25</v>
       </c>
+      <c r="G307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -4964,6 +5295,9 @@
       <c r="E308" t="inlineStr"/>
       <c r="F308" t="n">
         <v>294232.01</v>
+      </c>
+      <c r="G308" t="n">
+        <v>2.59</v>
       </c>
     </row>
     <row r="309">
@@ -4979,6 +5313,7 @@
       <c r="F309" t="n">
         <v>296264.17</v>
       </c>
+      <c r="G309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -4993,6 +5328,7 @@
       <c r="F310" t="n">
         <v>299447.98</v>
       </c>
+      <c r="G310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -5012,6 +5348,9 @@
       <c r="E311" t="inlineStr"/>
       <c r="F311" t="n">
         <v>301654.09</v>
+      </c>
+      <c r="G311" t="n">
+        <v>2.44</v>
       </c>
     </row>
     <row r="312">
@@ -5027,6 +5366,7 @@
       <c r="F312" t="n">
         <v>306564.01</v>
       </c>
+      <c r="G312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -5041,6 +5381,7 @@
       <c r="F313" t="n">
         <v>309908.02</v>
       </c>
+      <c r="G313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -5060,6 +5401,9 @@
       <c r="E314" t="inlineStr"/>
       <c r="F314" t="n">
         <v>312521.67</v>
+      </c>
+      <c r="G314" t="n">
+        <v>2.39</v>
       </c>
     </row>
     <row r="315">
@@ -5075,6 +5419,7 @@
       <c r="F315" t="n">
         <v>315413.72</v>
       </c>
+      <c r="G315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -5089,6 +5434,7 @@
       <c r="F316" t="n">
         <v>319777.37</v>
       </c>
+      <c r="G316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -5108,6 +5454,9 @@
       <c r="E317" t="inlineStr"/>
       <c r="F317" t="n">
         <v>325015.74</v>
+      </c>
+      <c r="G317" t="n">
+        <v>2.26</v>
       </c>
     </row>
     <row r="318">
@@ -5123,6 +5472,7 @@
       <c r="F318" t="n">
         <v>329097.63</v>
       </c>
+      <c r="G318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -5137,6 +5487,7 @@
       <c r="F319" t="n">
         <v>334852.8</v>
       </c>
+      <c r="G319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -5156,6 +5507,9 @@
       <c r="E320" t="inlineStr"/>
       <c r="F320" t="n">
         <v>339945.48</v>
+      </c>
+      <c r="G320" t="n">
+        <v>2.16</v>
       </c>
     </row>
     <row r="321">
@@ -5171,6 +5525,7 @@
       <c r="F321" t="n">
         <v>347670.7</v>
       </c>
+      <c r="G321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -5185,6 +5540,7 @@
       <c r="F322" t="n">
         <v>350083.91</v>
       </c>
+      <c r="G322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -5204,6 +5560,9 @@
       <c r="E323" t="inlineStr"/>
       <c r="F323" t="n">
         <v>352779.03</v>
+      </c>
+      <c r="G323" t="n">
+        <v>2.06</v>
       </c>
     </row>
     <row r="324">
@@ -5219,6 +5578,7 @@
       <c r="F324" t="n">
         <v>362592.72</v>
       </c>
+      <c r="G324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -5233,6 +5593,7 @@
       <c r="F325" t="n">
         <v>365569.56</v>
       </c>
+      <c r="G325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -5252,6 +5613,9 @@
       <c r="E326" t="inlineStr"/>
       <c r="F326" t="n">
         <v>372003.17</v>
+      </c>
+      <c r="G326" t="n">
+        <v>2.08</v>
       </c>
     </row>
     <row r="327">
@@ -5267,6 +5631,7 @@
       <c r="F327" t="n">
         <v>378103.38</v>
       </c>
+      <c r="G327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -5281,6 +5646,7 @@
       <c r="F328" t="n">
         <v>385559.92</v>
       </c>
+      <c r="G328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -5300,6 +5666,9 @@
       <c r="E329" t="inlineStr"/>
       <c r="F329" t="n">
         <v>389743.58</v>
+      </c>
+      <c r="G329" t="n">
+        <v>2.11</v>
       </c>
     </row>
     <row r="330">
@@ -5315,6 +5684,7 @@
       <c r="F330" t="n">
         <v>398163.97</v>
       </c>
+      <c r="G330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -5329,6 +5699,7 @@
       <c r="F331" t="n">
         <v>406087.43</v>
       </c>
+      <c r="G331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -5348,6 +5719,9 @@
       <c r="E332" t="inlineStr"/>
       <c r="F332" t="n">
         <v>409141.29</v>
+      </c>
+      <c r="G332" t="n">
+        <v>2.16</v>
       </c>
     </row>
     <row r="333">
@@ -5363,6 +5737,7 @@
       <c r="F333" t="n">
         <v>417565.74</v>
       </c>
+      <c r="G333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -5377,6 +5752,7 @@
       <c r="F334" t="n">
         <v>429032.15</v>
       </c>
+      <c r="G334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -5396,6 +5772,9 @@
       <c r="E335" t="inlineStr"/>
       <c r="F335" t="n">
         <v>433450.42</v>
+      </c>
+      <c r="G335" t="n">
+        <v>2.17</v>
       </c>
     </row>
     <row r="336">
@@ -5411,6 +5790,7 @@
       <c r="F336" t="n">
         <v>436740.16</v>
       </c>
+      <c r="G336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -5425,6 +5805,7 @@
       <c r="F337" t="n">
         <v>443920.09</v>
       </c>
+      <c r="G337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -5444,6 +5825,9 @@
       <c r="E338" t="inlineStr"/>
       <c r="F338" t="n">
         <v>449994.68</v>
+      </c>
+      <c r="G338" t="n">
+        <v>2.18</v>
       </c>
     </row>
     <row r="339">
@@ -5459,6 +5843,7 @@
       <c r="F339" t="n">
         <v>455597.38</v>
       </c>
+      <c r="G339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -5473,6 +5858,7 @@
       <c r="F340" t="n">
         <v>461591.95</v>
       </c>
+      <c r="G340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -5492,6 +5878,9 @@
       <c r="E341" t="inlineStr"/>
       <c r="F341" t="n">
         <v>465781.59</v>
+      </c>
+      <c r="G341" t="n">
+        <v>2.26</v>
       </c>
     </row>
     <row r="342">
@@ -5507,6 +5896,7 @@
       <c r="F342" t="n">
         <v>470659.79</v>
       </c>
+      <c r="G342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -5521,6 +5911,7 @@
       <c r="F343" t="n">
         <v>474262.36</v>
       </c>
+      <c r="G343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -5540,6 +5931,9 @@
       <c r="E344" t="inlineStr"/>
       <c r="F344" t="n">
         <v>479267.01</v>
+      </c>
+      <c r="G344" t="n">
+        <v>2.24</v>
       </c>
     </row>
     <row r="345">
@@ -5555,6 +5949,7 @@
       <c r="F345" t="n">
         <v>483293.11</v>
       </c>
+      <c r="G345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -5569,6 +5964,7 @@
       <c r="F346" t="n">
         <v>486284.81</v>
       </c>
+      <c r="G346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -5588,6 +5984,9 @@
       <c r="E347" t="inlineStr"/>
       <c r="F347" t="n">
         <v>490441.62</v>
+      </c>
+      <c r="G347" t="n">
+        <v>2.33</v>
       </c>
     </row>
     <row r="348">
@@ -5603,6 +6002,7 @@
       <c r="F348" t="n">
         <v>497511.48</v>
       </c>
+      <c r="G348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -5617,6 +6017,7 @@
       <c r="F349" t="n">
         <v>507516.57</v>
       </c>
+      <c r="G349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -5636,6 +6037,9 @@
       <c r="E350" t="inlineStr"/>
       <c r="F350" t="n">
         <v>510470.26</v>
+      </c>
+      <c r="G350" t="n">
+        <v>2.3</v>
       </c>
     </row>
     <row r="351">
@@ -5651,6 +6055,7 @@
       <c r="F351" t="n">
         <v>511713.55</v>
       </c>
+      <c r="G351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -5665,6 +6070,7 @@
       <c r="F352" t="n">
         <v>511956.09</v>
       </c>
+      <c r="G352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -5684,6 +6090,9 @@
       <c r="E353" t="inlineStr"/>
       <c r="F353" t="n">
         <v>511864.57</v>
+      </c>
+      <c r="G353" t="n">
+        <v>2.28</v>
       </c>
     </row>
     <row r="354">
@@ -5699,6 +6108,7 @@
       <c r="F354" t="n">
         <v>514481.11</v>
       </c>
+      <c r="G354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -5713,6 +6123,7 @@
       <c r="F355" t="n">
         <v>515566.18</v>
       </c>
+      <c r="G355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -5732,6 +6143,9 @@
       <c r="E356" t="inlineStr"/>
       <c r="F356" t="n">
         <v>520896.35</v>
+      </c>
+      <c r="G356" t="n">
+        <v>2.26</v>
       </c>
     </row>
     <row r="357">
@@ -5747,6 +6161,7 @@
       <c r="F357" t="n">
         <v>524444.78</v>
       </c>
+      <c r="G357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -5761,6 +6176,7 @@
       <c r="F358" t="n">
         <v>528722.4</v>
       </c>
+      <c r="G358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -5780,6 +6196,9 @@
       <c r="E359" t="inlineStr"/>
       <c r="F359" t="n">
         <v>532044.28</v>
+      </c>
+      <c r="G359" t="n">
+        <v>2.2</v>
       </c>
     </row>
     <row r="360">
@@ -5795,6 +6214,7 @@
       <c r="F360" t="n">
         <v>534807.8</v>
       </c>
+      <c r="G360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -5809,6 +6229,7 @@
       <c r="F361" t="n">
         <v>540005.5600000001</v>
       </c>
+      <c r="G361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -5828,6 +6249,9 @@
       <c r="E362" t="inlineStr"/>
       <c r="F362" t="n">
         <v>537942.46</v>
+      </c>
+      <c r="G362" t="n">
+        <v>2.2</v>
       </c>
     </row>
     <row r="363">
@@ -5843,6 +6267,7 @@
       <c r="F363" t="n">
         <v>538894.29</v>
       </c>
+      <c r="G363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -5857,6 +6282,7 @@
       <c r="F364" t="n">
         <v>541447.51</v>
       </c>
+      <c r="G364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -5876,6 +6302,9 @@
       <c r="E365" t="inlineStr"/>
       <c r="F365" t="n">
         <v>560906.83</v>
+      </c>
+      <c r="G365" t="n">
+        <v>2.12</v>
       </c>
     </row>
     <row r="366">
@@ -5891,6 +6320,7 @@
       <c r="F366" t="n">
         <v>559834.13</v>
       </c>
+      <c r="G366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -5905,6 +6335,7 @@
       <c r="F367" t="n">
         <v>561550.45</v>
       </c>
+      <c r="G367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -5924,6 +6355,9 @@
       <c r="E368" t="inlineStr"/>
       <c r="F368" t="n">
         <v>560553.9399999999</v>
+      </c>
+      <c r="G368" t="n">
+        <v>2.09</v>
       </c>
     </row>
     <row r="369">
@@ -5939,6 +6373,7 @@
       <c r="F369" t="n">
         <v>564420.41</v>
       </c>
+      <c r="G369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -5953,6 +6388,7 @@
       <c r="F370" t="n">
         <v>568615.6899999999</v>
       </c>
+      <c r="G370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -5972,6 +6408,9 @@
       <c r="E371" t="inlineStr"/>
       <c r="F371" t="n">
         <v>572289.34</v>
+      </c>
+      <c r="G371" t="n">
+        <v>2.03</v>
       </c>
     </row>
     <row r="372">
@@ -5987,6 +6426,7 @@
       <c r="F372" t="n">
         <v>571207.79</v>
       </c>
+      <c r="G372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -6001,6 +6441,7 @@
       <c r="F373" t="n">
         <v>581414.78</v>
       </c>
+      <c r="G373" t="inlineStr"/>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -6020,6 +6461,9 @@
       <c r="E374" t="inlineStr"/>
       <c r="F374" t="n">
         <v>585177.01</v>
+      </c>
+      <c r="G374" t="n">
+        <v>1.94</v>
       </c>
     </row>
     <row r="375">
@@ -6035,6 +6479,7 @@
       <c r="F375" t="n">
         <v>585454.04</v>
       </c>
+      <c r="G375" t="inlineStr"/>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -6049,6 +6494,7 @@
       <c r="F376" t="n">
         <v>585157.22</v>
       </c>
+      <c r="G376" t="inlineStr"/>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -6068,6 +6514,9 @@
       <c r="E377" t="inlineStr"/>
       <c r="F377" t="n">
         <v>585734.42</v>
+      </c>
+      <c r="G377" t="n">
+        <v>1.88</v>
       </c>
     </row>
     <row r="378">
@@ -6083,6 +6532,7 @@
       <c r="F378" t="n">
         <v>588377.6899999999</v>
       </c>
+      <c r="G378" t="inlineStr"/>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -6097,6 +6547,7 @@
       <c r="F379" t="n">
         <v>594610.74</v>
       </c>
+      <c r="G379" t="inlineStr"/>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -6116,6 +6567,9 @@
       <c r="E380" t="inlineStr"/>
       <c r="F380" t="n">
         <v>600995.38</v>
+      </c>
+      <c r="G380" t="n">
+        <v>2.15</v>
       </c>
     </row>
     <row r="381">
@@ -6131,6 +6585,7 @@
       <c r="F381" t="n">
         <v>603528.9300000001</v>
       </c>
+      <c r="G381" t="inlineStr"/>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -6145,6 +6600,7 @@
       <c r="F382" t="n">
         <v>606886.5600000001</v>
       </c>
+      <c r="G382" t="inlineStr"/>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -6164,6 +6620,9 @@
       <c r="E383" t="inlineStr"/>
       <c r="F383" t="n">
         <v>608141.54</v>
+      </c>
+      <c r="G383" t="n">
+        <v>1.99</v>
       </c>
     </row>
     <row r="384">
@@ -6179,6 +6638,7 @@
       <c r="F384" t="n">
         <v>610101.83</v>
       </c>
+      <c r="G384" t="inlineStr"/>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -6193,6 +6653,7 @@
       <c r="F385" t="n">
         <v>610696.47</v>
       </c>
+      <c r="G385" t="inlineStr"/>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -6212,6 +6673,9 @@
       <c r="E386" t="inlineStr"/>
       <c r="F386" t="n">
         <v>614846.55</v>
+      </c>
+      <c r="G386" t="n">
+        <v>1.95</v>
       </c>
     </row>
     <row r="387">
@@ -6227,6 +6691,7 @@
       <c r="F387" t="n">
         <v>617332.5600000001</v>
       </c>
+      <c r="G387" t="inlineStr"/>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -6241,6 +6706,7 @@
       <c r="F388" t="n">
         <v>622510.97</v>
       </c>
+      <c r="G388" t="inlineStr"/>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -6260,6 +6726,9 @@
       <c r="E389" t="inlineStr"/>
       <c r="F389" t="n">
         <v>625735.9399999999</v>
+      </c>
+      <c r="G389" t="n">
+        <v>1.98</v>
       </c>
     </row>
     <row r="390">
@@ -6275,6 +6744,7 @@
       <c r="F390" t="n">
         <v>631857.15</v>
       </c>
+      <c r="G390" t="inlineStr"/>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -6289,6 +6759,7 @@
       <c r="F391" t="n">
         <v>639158.55</v>
       </c>
+      <c r="G391" t="inlineStr"/>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -6308,6 +6779,9 @@
       <c r="E392" t="inlineStr"/>
       <c r="F392" t="n">
         <v>646927.01</v>
+      </c>
+      <c r="G392" t="n">
+        <v>2.09</v>
       </c>
     </row>
     <row r="393">
@@ -6323,6 +6797,7 @@
       <c r="F393" t="n">
         <v>656021.89</v>
       </c>
+      <c r="G393" t="inlineStr"/>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -6337,6 +6812,7 @@
       <c r="F394" t="n">
         <v>661996.8100000001</v>
       </c>
+      <c r="G394" t="inlineStr"/>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -6356,6 +6832,9 @@
       <c r="E395" t="inlineStr"/>
       <c r="F395" t="n">
         <v>667948.15</v>
+      </c>
+      <c r="G395" t="n">
+        <v>2.23</v>
       </c>
     </row>
     <row r="396">
@@ -6371,6 +6850,7 @@
       <c r="F396" t="n">
         <v>673994.74</v>
       </c>
+      <c r="G396" t="inlineStr"/>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -6387,6 +6867,7 @@
       <c r="F397" t="n">
         <v>682646.37</v>
       </c>
+      <c r="G397" t="inlineStr"/>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -6408,6 +6889,9 @@
       </c>
       <c r="F398" t="n">
         <v>686761.5</v>
+      </c>
+      <c r="G398" t="n">
+        <v>2.34</v>
       </c>
     </row>
     <row r="399">
@@ -6425,6 +6909,7 @@
       <c r="F399" t="n">
         <v>697982.51</v>
       </c>
+      <c r="G399" t="inlineStr"/>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -6441,6 +6926,7 @@
       <c r="F400" t="n">
         <v>702560.77</v>
       </c>
+      <c r="G400" t="inlineStr"/>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -6462,6 +6948,9 @@
       </c>
       <c r="F401" t="n">
         <v>707447.02</v>
+      </c>
+      <c r="G401" t="n">
+        <v>2.41</v>
       </c>
     </row>
     <row r="402">
@@ -6479,6 +6968,7 @@
       <c r="F402" t="n">
         <v>709590.51</v>
       </c>
+      <c r="G402" t="inlineStr"/>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -6495,6 +6985,7 @@
       <c r="F403" t="n">
         <v>712002.55</v>
       </c>
+      <c r="G403" t="inlineStr"/>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -6516,6 +7007,9 @@
       </c>
       <c r="F404" t="n">
         <v>707890.02</v>
+      </c>
+      <c r="G404" t="n">
+        <v>2.19</v>
       </c>
     </row>
     <row r="405">
@@ -6533,6 +7027,7 @@
       <c r="F405" t="n">
         <v>706691.34</v>
       </c>
+      <c r="G405" t="inlineStr"/>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -6549,6 +7044,7 @@
       <c r="F406" t="n">
         <v>707262.63</v>
       </c>
+      <c r="G406" t="inlineStr"/>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -6570,6 +7066,9 @@
       </c>
       <c r="F407" t="n">
         <v>705408.52</v>
+      </c>
+      <c r="G407" t="n">
+        <v>2.26</v>
       </c>
     </row>
     <row r="408">
@@ -6587,6 +7086,7 @@
       <c r="F408" t="n">
         <v>712658.74</v>
       </c>
+      <c r="G408" t="inlineStr"/>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -6603,6 +7103,7 @@
       <c r="F409" t="n">
         <v>714840.73</v>
       </c>
+      <c r="G409" t="inlineStr"/>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -6624,6 +7125,9 @@
       </c>
       <c r="F410" t="n">
         <v>714781.5</v>
+      </c>
+      <c r="G410" t="n">
+        <v>2.24</v>
       </c>
     </row>
     <row r="411">
@@ -6641,6 +7145,7 @@
       <c r="F411" t="n">
         <v>714822.1</v>
       </c>
+      <c r="G411" t="inlineStr"/>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -6657,6 +7162,7 @@
       <c r="F412" t="n">
         <v>719956.04</v>
       </c>
+      <c r="G412" t="inlineStr"/>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -6678,6 +7184,9 @@
       </c>
       <c r="F413" t="n">
         <v>725227.7</v>
+      </c>
+      <c r="G413" t="n">
+        <v>2.16</v>
       </c>
     </row>
     <row r="414">
@@ -6695,6 +7204,7 @@
       <c r="F414" t="n">
         <v>728364.1</v>
       </c>
+      <c r="G414" t="inlineStr"/>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -6711,6 +7221,7 @@
       <c r="F415" t="n">
         <v>732813.38</v>
       </c>
+      <c r="G415" t="inlineStr"/>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -6732,6 +7243,9 @@
       </c>
       <c r="F416" t="n">
         <v>736264.46</v>
+      </c>
+      <c r="G416" t="n">
+        <v>2.1</v>
       </c>
     </row>
     <row r="417">
@@ -6749,6 +7263,7 @@
       <c r="F417" t="n">
         <v>740489.45</v>
       </c>
+      <c r="G417" t="inlineStr"/>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -6765,6 +7280,7 @@
       <c r="F418" t="n">
         <v>743326.36</v>
       </c>
+      <c r="G418" t="inlineStr"/>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -6786,6 +7302,9 @@
       </c>
       <c r="F419" t="n">
         <v>747939.58</v>
+      </c>
+      <c r="G419" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="420">
@@ -6803,6 +7322,7 @@
       <c r="F420" t="n">
         <v>749906.22</v>
       </c>
+      <c r="G420" t="inlineStr"/>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -6819,6 +7339,7 @@
       <c r="F421" t="n">
         <v>750947.45</v>
       </c>
+      <c r="G421" t="inlineStr"/>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -6840,6 +7361,9 @@
       </c>
       <c r="F422" t="n">
         <v>754789.4</v>
+      </c>
+      <c r="G422" t="n">
+        <v>1.97</v>
       </c>
     </row>
     <row r="423">
@@ -6857,6 +7381,7 @@
       <c r="F423" t="n">
         <v>758601.34</v>
       </c>
+      <c r="G423" t="inlineStr"/>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -6873,6 +7398,7 @@
       <c r="F424" t="n">
         <v>759655.21</v>
       </c>
+      <c r="G424" t="inlineStr"/>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -6894,6 +7420,9 @@
       </c>
       <c r="F425" t="n">
         <v>760752.4300000001</v>
+      </c>
+      <c r="G425" t="n">
+        <v>1.83</v>
       </c>
     </row>
     <row r="426">
@@ -6911,6 +7440,7 @@
       <c r="F426" t="n">
         <v>763704.74</v>
       </c>
+      <c r="G426" t="inlineStr"/>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -6927,6 +7457,7 @@
       <c r="F427" t="n">
         <v>763814.88</v>
       </c>
+      <c r="G427" t="inlineStr"/>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -6948,6 +7479,9 @@
       </c>
       <c r="F428" t="n">
         <v>764388.66</v>
+      </c>
+      <c r="G428" t="n">
+        <v>1.73</v>
       </c>
     </row>
     <row r="429">
@@ -6965,6 +7499,7 @@
       <c r="F429" t="n">
         <v>766324.4</v>
       </c>
+      <c r="G429" t="inlineStr"/>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -6981,6 +7516,7 @@
       <c r="F430" t="n">
         <v>766041.92</v>
       </c>
+      <c r="G430" t="inlineStr"/>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -7002,6 +7538,9 @@
       </c>
       <c r="F431" t="n">
         <v>765535.1899999999</v>
+      </c>
+      <c r="G431" t="n">
+        <v>1.76</v>
       </c>
     </row>
     <row r="432">
@@ -7019,6 +7558,7 @@
       <c r="F432" t="n">
         <v>765007.92</v>
       </c>
+      <c r="G432" t="inlineStr"/>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -7035,6 +7575,7 @@
       <c r="F433" t="n">
         <v>768258.3100000001</v>
       </c>
+      <c r="G433" t="inlineStr"/>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -7056,6 +7597,9 @@
       </c>
       <c r="F434" t="n">
         <v>770672.5</v>
+      </c>
+      <c r="G434" t="n">
+        <v>1.65</v>
       </c>
     </row>
     <row r="435">
@@ -7073,6 +7617,7 @@
       <c r="F435" t="n">
         <v>772362.27</v>
       </c>
+      <c r="G435" t="inlineStr"/>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -7089,6 +7634,7 @@
       <c r="F436" t="n">
         <v>778092.48</v>
       </c>
+      <c r="G436" t="inlineStr"/>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -7110,6 +7656,9 @@
       </c>
       <c r="F437" t="n">
         <v>775554.79</v>
+      </c>
+      <c r="G437" t="n">
+        <v>1.6</v>
       </c>
     </row>
     <row r="438">
@@ -7127,6 +7676,7 @@
       <c r="F438" t="n">
         <v>778088.65</v>
       </c>
+      <c r="G438" t="inlineStr"/>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -7143,6 +7693,7 @@
       <c r="F439" t="n">
         <v>779731.22</v>
       </c>
+      <c r="G439" t="inlineStr"/>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -7164,6 +7715,9 @@
       </c>
       <c r="F440" t="n">
         <v>786087.14</v>
+      </c>
+      <c r="G440" t="n">
+        <v>1.56</v>
       </c>
     </row>
     <row r="441">
@@ -7181,6 +7735,7 @@
       <c r="F441" t="n">
         <v>787011.66</v>
       </c>
+      <c r="G441" t="inlineStr"/>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -7197,6 +7752,7 @@
       <c r="F442" t="n">
         <v>793635.8100000001</v>
       </c>
+      <c r="G442" t="inlineStr"/>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -7218,6 +7774,9 @@
       </c>
       <c r="F443" t="n">
         <v>796696.49</v>
+      </c>
+      <c r="G443" t="n">
+        <v>1.41</v>
       </c>
     </row>
     <row r="444">
@@ -7235,6 +7794,7 @@
       <c r="F444" t="n">
         <v>797184.97</v>
       </c>
+      <c r="G444" t="inlineStr"/>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
@@ -7251,6 +7811,7 @@
       <c r="F445" t="n">
         <v>799552.1800000001</v>
       </c>
+      <c r="G445" t="inlineStr"/>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -7272,6 +7833,9 @@
       </c>
       <c r="F446" t="n">
         <v>804635.76</v>
+      </c>
+      <c r="G446" t="n">
+        <v>1.42</v>
       </c>
     </row>
     <row r="447">
@@ -7289,6 +7853,7 @@
       <c r="F447" t="n">
         <v>804107.29</v>
       </c>
+      <c r="G447" t="inlineStr"/>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -7305,6 +7870,7 @@
       <c r="F448" t="n">
         <v>804639.97</v>
       </c>
+      <c r="G448" t="inlineStr"/>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -7326,6 +7892,9 @@
       </c>
       <c r="F449" t="n">
         <v>810558.39</v>
+      </c>
+      <c r="G449" t="n">
+        <v>1.55</v>
       </c>
     </row>
     <row r="450">
@@ -7343,6 +7912,7 @@
       <c r="F450" t="n">
         <v>809211.55</v>
       </c>
+      <c r="G450" t="inlineStr"/>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -7359,6 +7929,7 @@
       <c r="F451" t="n">
         <v>814181.65</v>
       </c>
+      <c r="G451" t="inlineStr"/>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -7380,6 +7951,9 @@
       </c>
       <c r="F452" t="n">
         <v>814908.46</v>
+      </c>
+      <c r="G452" t="n">
+        <v>1.59</v>
       </c>
     </row>
     <row r="453">
@@ -7397,6 +7971,7 @@
       <c r="F453" t="n">
         <v>817842.41</v>
       </c>
+      <c r="G453" t="inlineStr"/>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -7413,6 +7988,7 @@
       <c r="F454" t="n">
         <v>819651.75</v>
       </c>
+      <c r="G454" t="inlineStr"/>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -7434,6 +8010,9 @@
       </c>
       <c r="F455" t="n">
         <v>821082.67</v>
+      </c>
+      <c r="G455" t="n">
+        <v>1.64</v>
       </c>
     </row>
     <row r="456">
@@ -7451,6 +8030,7 @@
       <c r="F456" t="n">
         <v>825878.08</v>
       </c>
+      <c r="G456" t="inlineStr"/>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -7467,6 +8047,7 @@
       <c r="F457" t="n">
         <v>829518.36</v>
       </c>
+      <c r="G457" t="inlineStr"/>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
@@ -7488,6 +8069,9 @@
       </c>
       <c r="F458" t="n">
         <v>879577.12</v>
+      </c>
+      <c r="G458" t="n">
+        <v>1.61</v>
       </c>
     </row>
     <row r="459">
@@ -7505,6 +8089,7 @@
       <c r="F459" t="n">
         <v>885289.73</v>
       </c>
+      <c r="G459" t="inlineStr"/>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -7521,6 +8106,7 @@
       <c r="F460" t="n">
         <v>888243.58</v>
       </c>
+      <c r="G460" t="inlineStr"/>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
@@ -7542,6 +8128,9 @@
       </c>
       <c r="F461" t="n">
         <v>893526.92</v>
+      </c>
+      <c r="G461" t="n">
+        <v>1.62</v>
       </c>
     </row>
     <row r="462">
@@ -7559,6 +8148,7 @@
       <c r="F462" t="n">
         <v>899471.33</v>
       </c>
+      <c r="G462" t="inlineStr"/>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
@@ -7575,6 +8165,7 @@
       <c r="F463" t="n">
         <v>897483.3100000001</v>
       </c>
+      <c r="G463" t="inlineStr"/>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
@@ -7596,6 +8187,9 @@
       </c>
       <c r="F464" t="n">
         <v>898676.63</v>
+      </c>
+      <c r="G464" t="n">
+        <v>1.74</v>
       </c>
     </row>
     <row r="465">
@@ -7613,6 +8207,7 @@
       <c r="F465" t="n">
         <v>903924.28</v>
       </c>
+      <c r="G465" t="inlineStr"/>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
@@ -7629,6 +8224,7 @@
       <c r="F466" t="n">
         <v>907814.35</v>
       </c>
+      <c r="G466" t="inlineStr"/>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
@@ -7650,6 +8246,9 @@
       </c>
       <c r="F467" t="n">
         <v>911614.51</v>
+      </c>
+      <c r="G467" t="n">
+        <v>1.92</v>
       </c>
     </row>
     <row r="468">
@@ -7667,6 +8266,7 @@
       <c r="F468" t="n">
         <v>917346.1800000001</v>
       </c>
+      <c r="G468" t="inlineStr"/>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
@@ -7683,6 +8283,7 @@
       <c r="F469" t="n">
         <v>923876.78</v>
       </c>
+      <c r="G469" t="inlineStr"/>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
@@ -7704,6 +8305,9 @@
       </c>
       <c r="F470" t="n">
         <v>927629.46</v>
+      </c>
+      <c r="G470" t="n">
+        <v>2.08</v>
       </c>
     </row>
     <row r="471">
@@ -7721,6 +8325,7 @@
       <c r="F471" t="n">
         <v>933355.8</v>
       </c>
+      <c r="G471" t="inlineStr"/>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
@@ -7737,6 +8342,7 @@
       <c r="F472" t="n">
         <v>938463.58</v>
       </c>
+      <c r="G472" t="inlineStr"/>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
@@ -7758,6 +8364,9 @@
       </c>
       <c r="F473" t="n">
         <v>941386.51</v>
+      </c>
+      <c r="G473" t="n">
+        <v>2.29</v>
       </c>
     </row>
     <row r="474">
@@ -7775,6 +8384,7 @@
       <c r="F474" t="n">
         <v>950626.04</v>
       </c>
+      <c r="G474" t="inlineStr"/>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
@@ -7791,6 +8401,7 @@
       <c r="F475" t="n">
         <v>953925.09</v>
       </c>
+      <c r="G475" t="inlineStr"/>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
@@ -7812,6 +8423,9 @@
       </c>
       <c r="F476" t="n">
         <v>958322.3100000001</v>
+      </c>
+      <c r="G476" t="n">
+        <v>2.72</v>
       </c>
     </row>
     <row r="477">
@@ -7829,6 +8443,7 @@
       <c r="F477" t="n">
         <v>968225.62</v>
       </c>
+      <c r="G477" t="inlineStr"/>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
@@ -7845,6 +8460,7 @@
       <c r="F478" t="n">
         <v>975499.77</v>
       </c>
+      <c r="G478" t="inlineStr"/>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
@@ -7866,6 +8482,9 @@
       </c>
       <c r="F479" t="n">
         <v>982852.85</v>
+      </c>
+      <c r="G479" t="n">
+        <v>3.1</v>
       </c>
     </row>
     <row r="480">
@@ -7883,6 +8502,7 @@
       <c r="F480" t="n">
         <v>994565.28</v>
       </c>
+      <c r="G480" t="inlineStr"/>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
@@ -7899,6 +8519,7 @@
       <c r="F481" t="n">
         <v>1001625.3</v>
       </c>
+      <c r="G481" t="inlineStr"/>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
@@ -7920,6 +8541,9 @@
       </c>
       <c r="F482" t="n">
         <v>1008034.46</v>
+      </c>
+      <c r="G482" t="n">
+        <v>3.68</v>
       </c>
     </row>
     <row r="483">
@@ -7937,6 +8561,7 @@
       <c r="F483" t="n">
         <v>1014944.46</v>
       </c>
+      <c r="G483" t="inlineStr"/>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
@@ -7953,6 +8578,7 @@
       <c r="F484" t="n">
         <v>1016772</v>
       </c>
+      <c r="G484" t="inlineStr"/>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
@@ -7974,6 +8600,9 @@
       </c>
       <c r="F485" t="n">
         <v>1018531.96</v>
+      </c>
+      <c r="G485" t="n">
+        <v>4.36</v>
       </c>
     </row>
     <row r="486">
@@ -7991,6 +8620,7 @@
       <c r="F486" t="n">
         <v>1019636.96</v>
       </c>
+      <c r="G486" t="inlineStr"/>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
@@ -8007,6 +8637,7 @@
       <c r="F487" t="n">
         <v>1019322.07</v>
       </c>
+      <c r="G487" t="inlineStr"/>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
@@ -8028,6 +8659,9 @@
       </c>
       <c r="F488" t="n">
         <v>1018363.9</v>
+      </c>
+      <c r="G488" t="n">
+        <v>5.28</v>
       </c>
     </row>
     <row r="489">
@@ -8045,6 +8679,7 @@
       <c r="F489" t="n">
         <v>1017430.52</v>
       </c>
+      <c r="G489" t="inlineStr"/>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
@@ -8061,6 +8696,7 @@
       <c r="F490" t="n">
         <v>1012560.94</v>
       </c>
+      <c r="G490" t="inlineStr"/>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
@@ -8082,6 +8718,9 @@
       </c>
       <c r="F491" t="n">
         <v>1016461.34</v>
+      </c>
+      <c r="G491" t="n">
+        <v>6.58</v>
       </c>
     </row>
     <row r="492">
@@ -8099,6 +8738,7 @@
       <c r="F492" t="n">
         <v>1010482.06</v>
       </c>
+      <c r="G492" t="inlineStr"/>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
@@ -8115,6 +8755,7 @@
       <c r="F493" t="n">
         <v>1003997.04</v>
       </c>
+      <c r="G493" t="inlineStr"/>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
@@ -8136,6 +8777,9 @@
       </c>
       <c r="F494" t="n">
         <v>1007215.24</v>
+      </c>
+      <c r="G494" t="n">
+        <v>8.01</v>
       </c>
     </row>
     <row r="495">
@@ -8153,6 +8797,7 @@
       <c r="F495" t="n">
         <v>998876.1800000001</v>
       </c>
+      <c r="G495" t="inlineStr"/>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
@@ -8169,6 +8814,7 @@
       <c r="F496" t="n">
         <v>984512.63</v>
       </c>
+      <c r="G496" t="inlineStr"/>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
@@ -8190,6 +8836,9 @@
       </c>
       <c r="F497" t="n">
         <v>980666.14</v>
+      </c>
+      <c r="G497" t="n">
+        <v>8.57</v>
       </c>
     </row>
     <row r="498">
@@ -8207,6 +8856,7 @@
       <c r="F498" t="n">
         <v>966760.34</v>
       </c>
+      <c r="G498" t="inlineStr"/>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
@@ -8223,6 +8873,7 @@
       <c r="F499" t="n">
         <v>963147.09</v>
       </c>
+      <c r="G499" t="inlineStr"/>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
@@ -8244,6 +8895,9 @@
       </c>
       <c r="F500" t="n">
         <v>960217.34</v>
+      </c>
+      <c r="G500" t="n">
+        <v>9.470000000000001</v>
       </c>
     </row>
     <row r="501">
@@ -8261,6 +8915,7 @@
       <c r="F501" t="n">
         <v>952045.04</v>
       </c>
+      <c r="G501" t="inlineStr"/>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
@@ -8277,6 +8932,7 @@
       <c r="F502" t="n">
         <v>947923.26</v>
       </c>
+      <c r="G502" t="inlineStr"/>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
@@ -8298,6 +8954,9 @@
       </c>
       <c r="F503" t="n">
         <v>940392.11</v>
+      </c>
+      <c r="G503" t="n">
+        <v>10.4</v>
       </c>
     </row>
     <row r="504">
@@ -8315,6 +8974,7 @@
       <c r="F504" t="n">
         <v>924820.91</v>
       </c>
+      <c r="G504" t="inlineStr"/>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
@@ -8331,6 +8991,7 @@
       <c r="F505" t="n">
         <v>916076.63</v>
       </c>
+      <c r="G505" t="inlineStr"/>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
@@ -8352,6 +9013,9 @@
       </c>
       <c r="F506" t="n">
         <v>909531.16</v>
+      </c>
+      <c r="G506" t="n">
+        <v>11.49</v>
       </c>
     </row>
     <row r="507">
@@ -8369,6 +9033,7 @@
       <c r="F507" t="n">
         <v>902330.23</v>
       </c>
+      <c r="G507" t="inlineStr"/>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
@@ -8385,6 +9050,7 @@
       <c r="F508" t="n">
         <v>897879.61</v>
       </c>
+      <c r="G508" t="inlineStr"/>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
@@ -8406,6 +9072,9 @@
       </c>
       <c r="F509" t="n">
         <v>896602.91</v>
+      </c>
+      <c r="G509" t="n">
+        <v>11.08</v>
       </c>
     </row>
     <row r="510">
@@ -8423,6 +9092,7 @@
       <c r="F510" t="n">
         <v>882595.4399999999</v>
       </c>
+      <c r="G510" t="inlineStr"/>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
@@ -8439,6 +9109,7 @@
       <c r="F511" t="n">
         <v>877043.12</v>
       </c>
+      <c r="G511" t="inlineStr"/>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
@@ -8460,6 +9131,9 @@
       </c>
       <c r="F512" t="n">
         <v>873223.28</v>
+      </c>
+      <c r="G512" t="n">
+        <v>10.65</v>
       </c>
     </row>
     <row r="513">
@@ -8477,6 +9151,7 @@
       <c r="F513" t="n">
         <v>866784.9300000001</v>
       </c>
+      <c r="G513" t="inlineStr"/>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
@@ -8493,6 +9168,7 @@
       <c r="F514" t="n">
         <v>862090.6800000001</v>
       </c>
+      <c r="G514" t="inlineStr"/>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
@@ -8514,6 +9190,9 @@
       </c>
       <c r="F515" t="n">
         <v>855380.39</v>
+      </c>
+      <c r="G515" t="n">
+        <v>10.32</v>
       </c>
     </row>
     <row r="516">
@@ -8531,6 +9210,7 @@
       <c r="F516" t="n">
         <v>851023.71</v>
       </c>
+      <c r="G516" t="inlineStr"/>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
@@ -8547,6 +9227,7 @@
       <c r="F517" t="n">
         <v>839102.67</v>
       </c>
+      <c r="G517" t="inlineStr"/>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
@@ -8568,6 +9249,9 @@
       </c>
       <c r="F518" t="n">
         <v>835418.27</v>
+      </c>
+      <c r="G518" t="n">
+        <v>10.37</v>
       </c>
     </row>
     <row r="519">
@@ -8585,6 +9269,7 @@
       <c r="F519" t="n">
         <v>833744.99</v>
       </c>
+      <c r="G519" t="inlineStr"/>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
@@ -8601,6 +9286,7 @@
       <c r="F520" t="n">
         <v>835667.9300000001</v>
       </c>
+      <c r="G520" t="inlineStr"/>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
@@ -8622,6 +9308,9 @@
       </c>
       <c r="F521" t="n">
         <v>834226.14</v>
+      </c>
+      <c r="G521" t="n">
+        <v>10.55</v>
       </c>
     </row>
     <row r="522">
@@ -8639,6 +9328,7 @@
       <c r="F522" t="n">
         <v>832510.72</v>
       </c>
+      <c r="G522" t="inlineStr"/>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
@@ -8655,6 +9345,7 @@
       <c r="F523" t="n">
         <v>836248.4300000001</v>
       </c>
+      <c r="G523" t="inlineStr"/>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
@@ -8676,6 +9367,9 @@
       </c>
       <c r="F524" t="n">
         <v>836459.22</v>
+      </c>
+      <c r="G524" t="n">
+        <v>10.5</v>
       </c>
     </row>
     <row r="525">
@@ -8693,6 +9387,7 @@
       <c r="F525" t="n">
         <v>836213.6</v>
       </c>
+      <c r="G525" t="inlineStr"/>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
@@ -8709,6 +9404,7 @@
       <c r="F526" t="n">
         <v>838293.0699999999</v>
       </c>
+      <c r="G526" t="inlineStr"/>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
@@ -8730,6 +9426,9 @@
       </c>
       <c r="F527" t="n">
         <v>838235.09</v>
+      </c>
+      <c r="G527" t="n">
+        <v>10.25</v>
       </c>
     </row>
     <row r="528">
@@ -8747,6 +9446,7 @@
       <c r="F528" t="n">
         <v>842069.65</v>
       </c>
+      <c r="G528" t="inlineStr"/>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
@@ -8763,6 +9463,7 @@
       <c r="F529" t="n">
         <v>840164.23</v>
       </c>
+      <c r="G529" t="inlineStr"/>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
@@ -8784,6 +9485,9 @@
       </c>
       <c r="F530" t="n">
         <v>840484.51</v>
+      </c>
+      <c r="G530" t="n">
+        <v>10.33</v>
       </c>
     </row>
     <row r="531">
@@ -8801,6 +9505,7 @@
       <c r="F531" t="n">
         <v>842731.8100000001</v>
       </c>
+      <c r="G531" t="inlineStr"/>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
@@ -8817,6 +9522,7 @@
       <c r="F532" t="n">
         <v>842774.9399999999</v>
       </c>
+      <c r="G532" t="inlineStr"/>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
@@ -8838,6 +9544,9 @@
       </c>
       <c r="F533" t="n">
         <v>838276.76</v>
+      </c>
+      <c r="G533" t="n">
+        <v>10.45</v>
       </c>
     </row>
     <row r="534">
@@ -8855,6 +9564,7 @@
       <c r="F534" t="n">
         <v>839975.12</v>
       </c>
+      <c r="G534" t="inlineStr"/>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
@@ -8871,6 +9581,7 @@
       <c r="F535" t="n">
         <v>838818.52</v>
       </c>
+      <c r="G535" t="inlineStr"/>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
@@ -8892,6 +9603,9 @@
       </c>
       <c r="F536" t="n">
         <v>837490.26</v>
+      </c>
+      <c r="G536" t="n">
+        <v>10.48</v>
       </c>
     </row>
     <row r="537">
@@ -8909,6 +9623,7 @@
       <c r="F537" t="n">
         <v>841409.15</v>
       </c>
+      <c r="G537" t="inlineStr"/>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
@@ -8925,6 +9640,7 @@
       <c r="F538" t="n">
         <v>841567.54</v>
       </c>
+      <c r="G538" t="inlineStr"/>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
@@ -8946,6 +9662,9 @@
       </c>
       <c r="F539" t="n">
         <v>843409.6800000001</v>
+      </c>
+      <c r="G539" t="n">
+        <v>10.03</v>
       </c>
     </row>
     <row r="540">
@@ -8963,6 +9682,7 @@
       <c r="F540" t="n">
         <v>845827.77</v>
       </c>
+      <c r="G540" t="inlineStr"/>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
@@ -8979,6 +9699,7 @@
       <c r="F541" t="n">
         <v>839980.84</v>
       </c>
+      <c r="G541" t="inlineStr"/>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
@@ -9000,6 +9721,9 @@
       </c>
       <c r="F542" t="n">
         <v>844794.66</v>
+      </c>
+      <c r="G542" t="n">
+        <v>9.73</v>
       </c>
     </row>
     <row r="543">
@@ -9017,6 +9741,7 @@
       <c r="F543" t="n">
         <v>850406.45</v>
       </c>
+      <c r="G543" t="inlineStr"/>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
@@ -9033,6 +9758,7 @@
       <c r="F544" t="n">
         <v>849563.63</v>
       </c>
+      <c r="G544" t="inlineStr"/>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
@@ -9054,6 +9780,9 @@
       </c>
       <c r="F545" t="n">
         <v>847856.23</v>
+      </c>
+      <c r="G545" t="n">
+        <v>9.32</v>
       </c>
     </row>
     <row r="546">
@@ -9071,6 +9800,7 @@
       <c r="F546" t="n">
         <v>851751.63</v>
       </c>
+      <c r="G546" t="inlineStr"/>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
@@ -9087,6 +9817,7 @@
       <c r="F547" t="n">
         <v>850688.48</v>
       </c>
+      <c r="G547" t="inlineStr"/>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
@@ -9108,6 +9839,9 @@
       </c>
       <c r="F548" t="n">
         <v>850854.89</v>
+      </c>
+      <c r="G548" t="n">
+        <v>8.66</v>
       </c>
     </row>
     <row r="549">
@@ -9125,6 +9859,7 @@
       <c r="F549" t="n">
         <v>852378.38</v>
       </c>
+      <c r="G549" t="inlineStr"/>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
@@ -9141,6 +9876,7 @@
       <c r="F550" t="n">
         <v>853263.62</v>
       </c>
+      <c r="G550" t="inlineStr"/>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
@@ -9162,6 +9898,9 @@
       </c>
       <c r="F551" t="n">
         <v>856964.62</v>
+      </c>
+      <c r="G551" t="n">
+        <v>8.289999999999999</v>
       </c>
     </row>
     <row r="552">
@@ -9179,6 +9918,7 @@
       <c r="F552" t="n">
         <v>852439.84</v>
       </c>
+      <c r="G552" t="inlineStr"/>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
@@ -9195,6 +9935,7 @@
       <c r="F553" t="n">
         <v>854138.8</v>
       </c>
+      <c r="G553" t="inlineStr"/>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
@@ -9216,6 +9957,9 @@
       </c>
       <c r="F554" t="n">
         <v>860896.5600000001</v>
+      </c>
+      <c r="G554" t="n">
+        <v>7.77</v>
       </c>
     </row>
     <row r="555">
@@ -9233,6 +9977,7 @@
       <c r="F555" t="n">
         <v>866697.65</v>
       </c>
+      <c r="G555" t="inlineStr"/>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
@@ -9249,6 +9994,7 @@
       <c r="F556" t="n">
         <v>868753.38</v>
       </c>
+      <c r="G556" t="inlineStr"/>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
@@ -9270,6 +10016,9 @@
       </c>
       <c r="F557" t="n">
         <v>875086.45</v>
+      </c>
+      <c r="G557" t="n">
+        <v>7.43</v>
       </c>
     </row>
     <row r="558">
@@ -9287,6 +10036,7 @@
       <c r="F558" t="n">
         <v>878555.1899999999</v>
       </c>
+      <c r="G558" t="inlineStr"/>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
@@ -9303,6 +10053,7 @@
       <c r="F559" t="n">
         <v>878415.09</v>
       </c>
+      <c r="G559" t="inlineStr"/>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
@@ -9324,6 +10075,9 @@
       </c>
       <c r="F560" t="n">
         <v>884171.75</v>
+      </c>
+      <c r="G560" t="n">
+        <v>7.06</v>
       </c>
     </row>
     <row r="561">
@@ -9341,6 +10095,7 @@
       <c r="F561" t="n">
         <v>886133.52</v>
       </c>
+      <c r="G561" t="inlineStr"/>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
@@ -9357,6 +10112,7 @@
       <c r="F562" t="n">
         <v>887169.15</v>
       </c>
+      <c r="G562" t="inlineStr"/>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
@@ -9378,6 +10134,9 @@
       </c>
       <c r="F563" t="n">
         <v>889798.4300000001</v>
+      </c>
+      <c r="G563" t="n">
+        <v>6.5</v>
       </c>
     </row>
     <row r="564">
@@ -9395,6 +10154,7 @@
       <c r="F564" t="n">
         <v>882173.75</v>
       </c>
+      <c r="G564" t="inlineStr"/>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
@@ -9411,6 +10171,7 @@
       <c r="F565" t="n">
         <v>887381.64</v>
       </c>
+      <c r="G565" t="inlineStr"/>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
@@ -9432,6 +10193,9 @@
       </c>
       <c r="F566" t="n">
         <v>881033.59</v>
+      </c>
+      <c r="G566" t="n">
+        <v>6.24</v>
       </c>
     </row>
     <row r="567">
@@ -9449,6 +10213,7 @@
       <c r="F567" t="n">
         <v>884751.64</v>
       </c>
+      <c r="G567" t="inlineStr"/>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
@@ -9465,6 +10230,7 @@
       <c r="F568" t="n">
         <v>890777.97</v>
       </c>
+      <c r="G568" t="inlineStr"/>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
@@ -9486,6 +10252,9 @@
       </c>
       <c r="F569" t="n">
         <v>898602.0600000001</v>
+      </c>
+      <c r="G569" t="n">
+        <v>5.82</v>
       </c>
     </row>
     <row r="570">
@@ -9503,6 +10272,7 @@
       <c r="F570" t="n">
         <v>900342.45</v>
       </c>
+      <c r="G570" t="inlineStr"/>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
@@ -9519,6 +10289,7 @@
       <c r="F571" t="n">
         <v>905490.7</v>
       </c>
+      <c r="G571" t="inlineStr"/>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
@@ -9540,6 +10311,9 @@
       </c>
       <c r="F572" t="n">
         <v>911442.36</v>
+      </c>
+      <c r="G572" t="n">
+        <v>5.39</v>
       </c>
     </row>
     <row r="573">
@@ -9557,6 +10331,7 @@
       <c r="F573" t="n">
         <v>914594.11</v>
       </c>
+      <c r="G573" t="inlineStr"/>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
@@ -9573,6 +10348,7 @@
       <c r="F574" t="n">
         <v>920698.87</v>
       </c>
+      <c r="G574" t="inlineStr"/>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
@@ -9594,6 +10370,9 @@
       </c>
       <c r="F575" t="n">
         <v>921731.24</v>
+      </c>
+      <c r="G575" t="n">
+        <v>5.11</v>
       </c>
     </row>
     <row r="576">
@@ -9611,6 +10390,7 @@
       <c r="F576" t="n">
         <v>917819.55</v>
       </c>
+      <c r="G576" t="inlineStr"/>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
@@ -9627,6 +10407,7 @@
       <c r="F577" t="n">
         <v>898082.65</v>
       </c>
+      <c r="G577" t="inlineStr"/>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
@@ -9648,6 +10429,9 @@
       </c>
       <c r="F578" t="n">
         <v>903594.77</v>
+      </c>
+      <c r="G578" t="n">
+        <v>4.79</v>
       </c>
     </row>
     <row r="579">
@@ -9665,6 +10449,7 @@
       <c r="F579" t="n">
         <v>907604.1800000001</v>
       </c>
+      <c r="G579" t="inlineStr"/>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
@@ -9681,6 +10466,7 @@
       <c r="F580" t="n">
         <v>919221.85</v>
       </c>
+      <c r="G580" t="inlineStr"/>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
@@ -9702,6 +10488,9 @@
       </c>
       <c r="F581" t="n">
         <v>924099.12</v>
+      </c>
+      <c r="G581" t="n">
+        <v>4.58</v>
       </c>
     </row>
     <row r="582">
@@ -9719,6 +10508,7 @@
       <c r="F582" t="n">
         <v>926988.16</v>
       </c>
+      <c r="G582" t="inlineStr"/>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
@@ -9735,6 +10525,7 @@
       <c r="F583" t="n">
         <v>934770.98</v>
       </c>
+      <c r="G583" t="inlineStr"/>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
@@ -9756,6 +10547,9 @@
       </c>
       <c r="F584" t="n">
         <v>940192.76</v>
+      </c>
+      <c r="G584" t="n">
+        <v>4.38</v>
       </c>
     </row>
     <row r="585">
@@ -9773,6 +10567,7 @@
       <c r="F585" t="n">
         <v>945126.03</v>
       </c>
+      <c r="G585" t="inlineStr"/>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
@@ -9789,6 +10584,7 @@
       <c r="F586" t="n">
         <v>949069.8</v>
       </c>
+      <c r="G586" t="inlineStr"/>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
@@ -9810,6 +10606,9 @@
       </c>
       <c r="F587" t="n">
         <v>949948.1800000001</v>
+      </c>
+      <c r="G587" t="n">
+        <v>4.14</v>
       </c>
     </row>
     <row r="588">
@@ -9827,6 +10626,7 @@
       <c r="F588" t="n">
         <v>954415.47</v>
       </c>
+      <c r="G588" t="inlineStr"/>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
@@ -9843,6 +10643,7 @@
       <c r="F589" t="n">
         <v>960095.49</v>
       </c>
+      <c r="G589" t="inlineStr"/>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
@@ -9864,6 +10665,9 @@
       </c>
       <c r="F590" t="n">
         <v>963467.38</v>
+      </c>
+      <c r="G590" t="n">
+        <v>3.91</v>
       </c>
     </row>
     <row r="591">
@@ -9881,6 +10685,7 @@
       <c r="F591" t="n">
         <v>969320.8199999999</v>
       </c>
+      <c r="G591" t="inlineStr"/>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
@@ -9897,6 +10702,7 @@
       <c r="F592" t="n">
         <v>973860.13</v>
       </c>
+      <c r="G592" t="inlineStr"/>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
@@ -9918,6 +10724,9 @@
       </c>
       <c r="F593" t="n">
         <v>976395.9300000001</v>
+      </c>
+      <c r="G593" t="n">
+        <v>3.68</v>
       </c>
     </row>
     <row r="594">
@@ -9935,6 +10744,7 @@
       <c r="F594" t="n">
         <v>980809.9</v>
       </c>
+      <c r="G594" t="inlineStr"/>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
@@ -9951,6 +10761,7 @@
       <c r="F595" t="n">
         <v>984955.36</v>
       </c>
+      <c r="G595" t="inlineStr"/>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
@@ -9972,6 +10783,9 @@
       </c>
       <c r="F596" t="n">
         <v>987546.5699999999</v>
+      </c>
+      <c r="G596" t="n">
+        <v>3.64</v>
       </c>
     </row>
     <row r="597">
@@ -9989,6 +10803,7 @@
       <c r="F597" t="n">
         <v>992084.83</v>
       </c>
+      <c r="G597" t="inlineStr"/>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
@@ -10005,6 +10820,7 @@
       <c r="F598" t="n">
         <v>997799.58</v>
       </c>
+      <c r="G598" t="inlineStr"/>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
@@ -10026,6 +10842,9 @@
       </c>
       <c r="F599" t="n">
         <v>1006228.68</v>
+      </c>
+      <c r="G599" t="n">
+        <v>3.57</v>
       </c>
     </row>
     <row r="600">
@@ -10043,6 +10862,7 @@
       <c r="F600" t="n">
         <v>1012316.89</v>
       </c>
+      <c r="G600" t="inlineStr"/>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
@@ -10059,6 +10879,7 @@
       <c r="F601" t="n">
         <v>1016806.6</v>
       </c>
+      <c r="G601" t="inlineStr"/>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
@@ -10080,6 +10901,9 @@
       </c>
       <c r="F602" t="n">
         <v>1022731</v>
+      </c>
+      <c r="G602" t="n">
+        <v>3.48</v>
       </c>
     </row>
     <row r="603">
@@ -10097,6 +10921,7 @@
       <c r="F603" t="n">
         <v>1024980.99</v>
       </c>
+      <c r="G603" t="inlineStr"/>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
@@ -10113,6 +10938,7 @@
       <c r="F604" t="n">
         <v>1028817.4</v>
       </c>
+      <c r="G604" t="inlineStr"/>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
@@ -10134,6 +10960,9 @@
       </c>
       <c r="F605" t="n">
         <v>1024656.62</v>
+      </c>
+      <c r="G605" t="n">
+        <v>3.22</v>
       </c>
     </row>
     <row r="606">
@@ -10151,6 +10980,7 @@
       <c r="F606" t="n">
         <v>1027724.28</v>
       </c>
+      <c r="G606" t="inlineStr"/>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
@@ -10167,6 +10997,7 @@
       <c r="F607" t="n">
         <v>1025345.59</v>
       </c>
+      <c r="G607" t="inlineStr"/>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
@@ -10188,6 +11019,9 @@
       </c>
       <c r="F608" t="n">
         <v>1035337.56</v>
+      </c>
+      <c r="G608" t="n">
+        <v>2.99</v>
       </c>
     </row>
     <row r="609">
@@ -10205,6 +11039,7 @@
       <c r="F609" t="n">
         <v>1042014.05</v>
       </c>
+      <c r="G609" t="inlineStr"/>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
@@ -10221,6 +11056,7 @@
       <c r="F610" t="n">
         <v>1043901.27</v>
       </c>
+      <c r="G610" t="inlineStr"/>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
@@ -10242,6 +11078,9 @@
       </c>
       <c r="F611" t="n">
         <v>1050366.36</v>
+      </c>
+      <c r="G611" t="n">
+        <v>2.83</v>
       </c>
     </row>
     <row r="612">
@@ -10259,6 +11098,7 @@
       <c r="F612" t="n">
         <v>1052545.16</v>
       </c>
+      <c r="G612" t="inlineStr"/>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
@@ -10275,6 +11115,7 @@
       <c r="F613" t="n">
         <v>1053847.44</v>
       </c>
+      <c r="G613" t="inlineStr"/>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
@@ -10296,6 +11137,9 @@
       </c>
       <c r="F614" t="n">
         <v>1061026.63</v>
+      </c>
+      <c r="G614" t="n">
+        <v>2.69</v>
       </c>
     </row>
     <row r="615">
@@ -10313,6 +11157,7 @@
       <c r="F615" t="n">
         <v>1063376.27</v>
       </c>
+      <c r="G615" t="inlineStr"/>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
@@ -10329,6 +11174,7 @@
       <c r="F616" t="n">
         <v>1064354.25</v>
       </c>
+      <c r="G616" t="inlineStr"/>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
@@ -10350,6 +11196,9 @@
       </c>
       <c r="F617" t="n">
         <v>1070714.69</v>
+      </c>
+      <c r="G617" t="n">
+        <v>2.6</v>
       </c>
     </row>
     <row r="618">
@@ -10367,6 +11216,7 @@
       <c r="F618" t="n">
         <v>1073802.25</v>
       </c>
+      <c r="G618" t="inlineStr"/>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
@@ -10383,6 +11233,7 @@
       <c r="F619" t="n">
         <v>1071552.07</v>
       </c>
+      <c r="G619" t="inlineStr"/>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
@@ -10404,6 +11255,9 @@
       </c>
       <c r="F620" t="n">
         <v>1082456.83</v>
+      </c>
+      <c r="G620" t="n">
+        <v>2.44</v>
       </c>
     </row>
     <row r="621">
@@ -10421,6 +11275,7 @@
       <c r="F621" t="n">
         <v>1084000.01</v>
       </c>
+      <c r="G621" t="inlineStr"/>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
@@ -10437,6 +11292,7 @@
       <c r="F622" t="n">
         <v>1084190</v>
       </c>
+      <c r="G622" t="inlineStr"/>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
@@ -10458,6 +11314,9 @@
       </c>
       <c r="F623" t="n">
         <v>1087314.72</v>
+      </c>
+      <c r="G623" t="n">
+        <v>2.34</v>
       </c>
     </row>
     <row r="624">
@@ -10475,6 +11334,7 @@
       <c r="F624" t="n">
         <v>1077376.27</v>
       </c>
+      <c r="G624" t="inlineStr"/>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
@@ -10491,6 +11351,7 @@
       <c r="F625" t="n">
         <v>1091988.88</v>
       </c>
+      <c r="G625" t="inlineStr"/>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
@@ -10512,6 +11373,9 @@
       </c>
       <c r="F626" t="n">
         <v>1076357.79</v>
+      </c>
+      <c r="G626" t="n">
+        <v>2.35</v>
       </c>
     </row>
     <row r="627">
@@ -10529,6 +11393,7 @@
       <c r="F627" t="n">
         <v>1081958.19</v>
       </c>
+      <c r="G627" t="inlineStr"/>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
@@ -10545,6 +11410,7 @@
       <c r="F628" t="n">
         <v>1064082.5</v>
       </c>
+      <c r="G628" t="inlineStr"/>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
@@ -10566,6 +11432,9 @@
       </c>
       <c r="F629" t="n">
         <v>1006627.91</v>
+      </c>
+      <c r="G629" t="n">
+        <v>2.54</v>
       </c>
     </row>
     <row r="630">
@@ -10583,6 +11452,7 @@
       <c r="F630" t="n">
         <v>981248.2</v>
       </c>
+      <c r="G630" t="inlineStr"/>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
@@ -10599,6 +11469,7 @@
       <c r="F631" t="n">
         <v>973899.96</v>
       </c>
+      <c r="G631" t="inlineStr"/>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
@@ -10620,6 +11491,9 @@
       </c>
       <c r="F632" t="n">
         <v>971278.7</v>
+      </c>
+      <c r="G632" t="n">
+        <v>2.83</v>
       </c>
     </row>
     <row r="633">
@@ -10637,6 +11511,7 @@
       <c r="F633" t="n">
         <v>961509.24</v>
       </c>
+      <c r="G633" t="inlineStr"/>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
@@ -10653,6 +11528,7 @@
       <c r="F634" t="n">
         <v>964464.42</v>
       </c>
+      <c r="G634" t="inlineStr"/>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
@@ -10674,6 +11550,9 @@
       </c>
       <c r="F635" t="n">
         <v>961074.1800000001</v>
+      </c>
+      <c r="G635" t="n">
+        <v>2.75</v>
       </c>
     </row>
     <row r="636">
@@ -10691,6 +11570,7 @@
       <c r="F636" t="n">
         <v>953306.86</v>
       </c>
+      <c r="G636" t="inlineStr"/>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
@@ -10707,6 +11587,7 @@
       <c r="F637" t="n">
         <v>954603.4300000001</v>
       </c>
+      <c r="G637" t="inlineStr"/>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
@@ -10728,6 +11609,9 @@
       </c>
       <c r="F638" t="n">
         <v>951790.91</v>
+      </c>
+      <c r="G638" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="639">
@@ -10745,6 +11629,7 @@
       <c r="F639" t="n">
         <v>955872.65</v>
       </c>
+      <c r="G639" t="inlineStr"/>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
@@ -10761,6 +11646,7 @@
       <c r="F640" t="n">
         <v>954267.4</v>
       </c>
+      <c r="G640" t="inlineStr"/>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
@@ -10782,6 +11668,9 @@
       </c>
       <c r="F641" t="n">
         <v>953948.77</v>
+      </c>
+      <c r="G641" t="n">
+        <v>2.48</v>
       </c>
     </row>
     <row r="642">
@@ -10799,6 +11688,7 @@
       <c r="F642" t="n">
         <v>961471.41</v>
       </c>
+      <c r="G642" t="inlineStr"/>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
@@ -10815,6 +11705,7 @@
       <c r="F643" t="n">
         <v>986122.27</v>
       </c>
+      <c r="G643" t="inlineStr"/>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
@@ -10836,6 +11727,9 @@
       </c>
       <c r="F644" t="n">
         <v>990643.76</v>
+      </c>
+      <c r="G644" t="n">
+        <v>2.3</v>
       </c>
     </row>
     <row r="645">
@@ -10853,6 +11747,7 @@
       <c r="F645" t="n">
         <v>994001.28</v>
       </c>
+      <c r="G645" t="inlineStr"/>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
@@ -10869,6 +11764,7 @@
       <c r="F646" t="n">
         <v>1005332.86</v>
       </c>
+      <c r="G646" t="inlineStr"/>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
@@ -10890,6 +11786,9 @@
       </c>
       <c r="F647" t="n">
         <v>1013373.01</v>
+      </c>
+      <c r="G647" t="n">
+        <v>2.29</v>
       </c>
     </row>
     <row r="648">
@@ -10907,6 +11806,7 @@
       <c r="F648" t="n">
         <v>1025886.27</v>
       </c>
+      <c r="G648" t="inlineStr"/>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
@@ -10923,6 +11823,7 @@
       <c r="F649" t="n">
         <v>1033546.93</v>
       </c>
+      <c r="G649" t="inlineStr"/>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
@@ -10944,6 +11845,9 @@
       </c>
       <c r="F650" t="n">
         <v>1043732.38</v>
+      </c>
+      <c r="G650" t="n">
+        <v>2.09</v>
       </c>
     </row>
     <row r="651">
@@ -10961,6 +11865,7 @@
       <c r="F651" t="n">
         <v>1055211.13</v>
       </c>
+      <c r="G651" t="inlineStr"/>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
@@ -10977,6 +11882,7 @@
       <c r="F652" t="n">
         <v>1079329.43</v>
       </c>
+      <c r="G652" t="inlineStr"/>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
@@ -10998,6 +11904,9 @@
       </c>
       <c r="F653" t="n">
         <v>1092969.86</v>
+      </c>
+      <c r="G653" t="n">
+        <v>1.96</v>
       </c>
     </row>
     <row r="654">
@@ -11015,6 +11924,7 @@
       <c r="F654" t="n">
         <v>1101405.35</v>
       </c>
+      <c r="G654" t="inlineStr"/>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
@@ -11031,6 +11941,7 @@
       <c r="F655" t="n">
         <v>1120580.97</v>
       </c>
+      <c r="G655" t="inlineStr"/>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
@@ -11052,6 +11963,9 @@
       </c>
       <c r="F656" t="n">
         <v>1130232.19</v>
+      </c>
+      <c r="G656" t="n">
+        <v>1.84</v>
       </c>
     </row>
     <row r="657">
@@ -11069,6 +11983,7 @@
       <c r="F657" t="n">
         <v>1144559.23</v>
       </c>
+      <c r="G657" t="inlineStr"/>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
@@ -11085,6 +12000,7 @@
       <c r="F658" t="n">
         <v>1154880.25</v>
       </c>
+      <c r="G658" t="inlineStr"/>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
@@ -11106,6 +12022,9 @@
       </c>
       <c r="F659" t="n">
         <v>1166450.12</v>
+      </c>
+      <c r="G659" t="n">
+        <v>1.79</v>
       </c>
     </row>
     <row r="660">
@@ -11123,6 +12042,7 @@
       <c r="F660" t="n">
         <v>1182560.52</v>
       </c>
+      <c r="G660" t="inlineStr"/>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
@@ -11139,6 +12059,7 @@
       <c r="F661" t="n">
         <v>1192639.7</v>
       </c>
+      <c r="G661" t="inlineStr"/>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
@@ -11160,6 +12081,9 @@
       </c>
       <c r="F662" t="n">
         <v>1200988.21</v>
+      </c>
+      <c r="G662" t="n">
+        <v>1.74</v>
       </c>
     </row>
     <row r="663">
@@ -11177,6 +12101,7 @@
       <c r="F663" t="n">
         <v>1205244.71</v>
       </c>
+      <c r="G663" t="inlineStr"/>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
@@ -11193,6 +12118,7 @@
       <c r="F664" t="n">
         <v>1222516.8</v>
       </c>
+      <c r="G664" t="inlineStr"/>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
@@ -11214,6 +12140,9 @@
       </c>
       <c r="F665" t="n">
         <v>1234457.79</v>
+      </c>
+      <c r="G665" t="n">
+        <v>1.72</v>
       </c>
     </row>
     <row r="666">
@@ -11231,6 +12160,7 @@
       <c r="F666" t="n">
         <v>1241882.1</v>
       </c>
+      <c r="G666" t="inlineStr"/>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
@@ -11247,6 +12177,7 @@
       <c r="F667" t="n">
         <v>1247752.93</v>
       </c>
+      <c r="G667" t="inlineStr"/>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
@@ -11268,6 +12199,9 @@
       </c>
       <c r="F668" t="n">
         <v>1256257.38</v>
+      </c>
+      <c r="G668" t="n">
+        <v>1.72</v>
       </c>
     </row>
     <row r="669">
@@ -11285,6 +12219,7 @@
       <c r="F669" t="n">
         <v>1270866.98</v>
       </c>
+      <c r="G669" t="inlineStr"/>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
@@ -11301,6 +12236,7 @@
       <c r="F670" t="n">
         <v>1276945.1</v>
       </c>
+      <c r="G670" t="inlineStr"/>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
@@ -11322,6 +12258,9 @@
       </c>
       <c r="F671" t="n">
         <v>1280719.35</v>
+      </c>
+      <c r="G671" t="n">
+        <v>1.7</v>
       </c>
     </row>
     <row r="672">
@@ -11339,6 +12278,7 @@
       <c r="F672" t="n">
         <v>1299363.55</v>
       </c>
+      <c r="G672" t="inlineStr"/>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
@@ -11355,6 +12295,7 @@
       <c r="F673" t="n">
         <v>1298865.88</v>
       </c>
+      <c r="G673" t="inlineStr"/>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
@@ -11376,6 +12317,9 @@
       </c>
       <c r="F674" t="n">
         <v>1310033.68</v>
+      </c>
+      <c r="G674" t="n">
+        <v>1.71</v>
       </c>
     </row>
     <row r="675">
@@ -11393,6 +12337,7 @@
       <c r="F675" t="n">
         <v>1320172.67</v>
       </c>
+      <c r="G675" t="inlineStr"/>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
@@ -11409,6 +12354,7 @@
       <c r="F676" t="n">
         <v>1322156.83</v>
       </c>
+      <c r="G676" t="inlineStr"/>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
@@ -11430,6 +12376,9 @@
       </c>
       <c r="F677" t="n">
         <v>1324875.93</v>
+      </c>
+      <c r="G677" t="n">
+        <v>1.73</v>
       </c>
     </row>
     <row r="678">
@@ -11447,6 +12396,7 @@
       <c r="F678" t="n">
         <v>1331663.85</v>
       </c>
+      <c r="G678" t="inlineStr"/>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
@@ -11463,6 +12413,7 @@
       <c r="F679" t="n">
         <v>1330645.56</v>
       </c>
+      <c r="G679" t="inlineStr"/>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
@@ -11484,6 +12435,9 @@
       </c>
       <c r="F680" t="n">
         <v>1338290.47</v>
+      </c>
+      <c r="G680" t="n">
+        <v>1.74</v>
       </c>
     </row>
     <row r="681">
@@ -11501,6 +12455,7 @@
       <c r="F681" t="n">
         <v>1338716.84</v>
       </c>
+      <c r="G681" t="inlineStr"/>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
@@ -11517,6 +12472,7 @@
       <c r="F682" t="n">
         <v>1341182.02</v>
       </c>
+      <c r="G682" t="inlineStr"/>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
@@ -11538,6 +12494,9 @@
       </c>
       <c r="F683" t="n">
         <v>1350299.53</v>
+      </c>
+      <c r="G683" t="n">
+        <v>1.77</v>
       </c>
     </row>
     <row r="684">
@@ -11555,6 +12514,7 @@
       <c r="F684" t="n">
         <v>1339076.22</v>
       </c>
+      <c r="G684" t="inlineStr"/>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
@@ -11571,6 +12531,7 @@
       <c r="F685" t="n">
         <v>1296965.6</v>
       </c>
+      <c r="G685" t="inlineStr"/>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
@@ -11592,6 +12553,9 @@
       </c>
       <c r="F686" t="n">
         <v>1304256.72</v>
+      </c>
+      <c r="G686" t="n">
+        <v>1.78</v>
       </c>
     </row>
     <row r="687">
@@ -11609,6 +12573,7 @@
       <c r="F687" t="n">
         <v>1305490.61</v>
       </c>
+      <c r="G687" t="inlineStr"/>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
@@ -11625,6 +12590,7 @@
       <c r="F688" t="n">
         <v>1294474.41</v>
       </c>
+      <c r="G688" t="inlineStr"/>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
@@ -11646,6 +12612,9 @@
       </c>
       <c r="F689" t="n">
         <v>1301501.81</v>
+      </c>
+      <c r="G689" t="n">
+        <v>1.78</v>
       </c>
     </row>
     <row r="690">
@@ -11663,6 +12632,7 @@
       <c r="F690" t="n">
         <v>1300227.79</v>
       </c>
+      <c r="G690" t="inlineStr"/>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
@@ -11679,6 +12649,7 @@
       <c r="F691" t="n">
         <v>1300318.03</v>
       </c>
+      <c r="G691" t="inlineStr"/>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
@@ -11698,6 +12669,9 @@
       </c>
       <c r="F692" t="n">
         <v>1311382.25</v>
+      </c>
+      <c r="G692" t="n">
+        <v>1.78</v>
       </c>
     </row>
     <row r="693">
@@ -11715,6 +12689,7 @@
       <c r="F693" t="n">
         <v>1307069.95</v>
       </c>
+      <c r="G693" t="inlineStr"/>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
@@ -11731,6 +12706,7 @@
       <c r="F694" t="n">
         <v>1311374.14</v>
       </c>
+      <c r="G694" t="inlineStr"/>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
@@ -11747,6 +12723,7 @@
       <c r="F695" t="n">
         <v>1316780.92</v>
       </c>
+      <c r="G695" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11759,7 +12736,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11839,6 +12816,18 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>DRSFRMACBS_pct</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>FRED DRSFRMACBS (quarterly) — Delinquency Rate on Single-Family Residential Mortgages, All Commercial Banks (%).</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/macro_credit_timeseries.xlsx
+++ b/macro_credit_timeseries.xlsx
@@ -28746,7 +28746,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3077"/>
+  <dimension ref="A1:C3078"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62605,6 +62605,17 @@
       </c>
       <c r="C3077" t="n">
         <v>224000</v>
+      </c>
+    </row>
+    <row r="3078">
+      <c r="A3078" s="2" t="n">
+        <v>46011</v>
+      </c>
+      <c r="B3078" t="n">
+        <v>214000</v>
+      </c>
+      <c r="C3078" t="n">
+        <v>214000</v>
       </c>
     </row>
   </sheetData>

--- a/macro_credit_timeseries.xlsx
+++ b/macro_credit_timeseries.xlsx
@@ -71404,10 +71404,10 @@
         <v>45748</v>
       </c>
       <c r="B797" t="n">
-        <v>18168.6</v>
+        <v>18132.9</v>
       </c>
       <c r="C797" t="n">
-        <v>18168.6</v>
+        <v>18132.9</v>
       </c>
     </row>
     <row r="798">
@@ -71415,10 +71415,10 @@
         <v>45778</v>
       </c>
       <c r="B798" t="n">
-        <v>18041.7</v>
+        <v>17980.9</v>
       </c>
       <c r="C798" t="n">
-        <v>18041.7</v>
+        <v>17980.9</v>
       </c>
     </row>
     <row r="799">
@@ -71426,10 +71426,10 @@
         <v>45809</v>
       </c>
       <c r="B799" t="n">
-        <v>18036.2</v>
+        <v>17962.1</v>
       </c>
       <c r="C799" t="n">
-        <v>18036.2</v>
+        <v>17962.1</v>
       </c>
     </row>
     <row r="800">
@@ -71437,10 +71437,10 @@
         <v>45839</v>
       </c>
       <c r="B800" t="n">
-        <v>18084.5</v>
+        <v>18011.3</v>
       </c>
       <c r="C800" t="n">
-        <v>18084.5</v>
+        <v>18011.3</v>
       </c>
     </row>
     <row r="801">
@@ -71448,10 +71448,10 @@
         <v>45870</v>
       </c>
       <c r="B801" t="n">
-        <v>18105.1</v>
+        <v>18030.5</v>
       </c>
       <c r="C801" t="n">
-        <v>18105.1</v>
+        <v>18030.5</v>
       </c>
     </row>
     <row r="802">
@@ -71459,10 +71459,10 @@
         <v>45901</v>
       </c>
       <c r="B802" t="n">
-        <v>18116.1</v>
+        <v>18040.2</v>
       </c>
       <c r="C802" t="n">
-        <v>18116.1</v>
+        <v>18040.2</v>
       </c>
     </row>
   </sheetData>

--- a/macro_credit_timeseries.xlsx
+++ b/macro_credit_timeseries.xlsx
@@ -28746,7 +28746,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3078"/>
+  <dimension ref="A1:C3079"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62612,10 +62612,21 @@
         <v>46011</v>
       </c>
       <c r="B3078" t="n">
-        <v>214000</v>
+        <v>215000</v>
       </c>
       <c r="C3078" t="n">
-        <v>214000</v>
+        <v>215000</v>
+      </c>
+    </row>
+    <row r="3079">
+      <c r="A3079" s="2" t="n">
+        <v>46018</v>
+      </c>
+      <c r="B3079" t="n">
+        <v>199000</v>
+      </c>
+      <c r="C3079" t="n">
+        <v>199000</v>
       </c>
     </row>
   </sheetData>

--- a/macro_credit_timeseries.xlsx
+++ b/macro_credit_timeseries.xlsx
@@ -15104,7 +15104,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C300"/>
+  <dimension ref="A1:C301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18412,10 +18412,21 @@
         <v>45931</v>
       </c>
       <c r="B300" t="n">
-        <v>7670</v>
+        <v>7449</v>
       </c>
       <c r="C300" t="n">
-        <v>7.67</v>
+        <v>7.449</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="2" t="n">
+        <v>45962</v>
+      </c>
+      <c r="B301" t="n">
+        <v>7146</v>
+      </c>
+      <c r="C301" t="n">
+        <v>7.146</v>
       </c>
     </row>
   </sheetData>
@@ -28746,7 +28757,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3079"/>
+  <dimension ref="A1:C3080"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62623,10 +62634,21 @@
         <v>46018</v>
       </c>
       <c r="B3079" t="n">
-        <v>199000</v>
+        <v>200000</v>
       </c>
       <c r="C3079" t="n">
-        <v>199000</v>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="3080">
+      <c r="A3080" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B3080" t="n">
+        <v>208000</v>
+      </c>
+      <c r="C3080" t="n">
+        <v>208000</v>
       </c>
     </row>
   </sheetData>

--- a/macro_credit_timeseries.xlsx
+++ b/macro_credit_timeseries.xlsx
@@ -7434,7 +7434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C695"/>
+  <dimension ref="A1:C696"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14658,10 +14658,10 @@
         <v>44743</v>
       </c>
       <c r="B656" t="n">
-        <v>1130232.19</v>
+        <v>1130232.51</v>
       </c>
       <c r="C656" t="n">
-        <v>1130232.19</v>
+        <v>1130232.51</v>
       </c>
     </row>
     <row r="657">
@@ -14669,10 +14669,10 @@
         <v>44774</v>
       </c>
       <c r="B657" t="n">
-        <v>1144559.23</v>
+        <v>1144559.98</v>
       </c>
       <c r="C657" t="n">
-        <v>1144559.23</v>
+        <v>1144559.98</v>
       </c>
     </row>
     <row r="658">
@@ -14680,10 +14680,10 @@
         <v>44805</v>
       </c>
       <c r="B658" t="n">
-        <v>1154880.25</v>
+        <v>1154880.21</v>
       </c>
       <c r="C658" t="n">
-        <v>1154880.25</v>
+        <v>1154880.21</v>
       </c>
     </row>
     <row r="659">
@@ -14691,10 +14691,10 @@
         <v>44835</v>
       </c>
       <c r="B659" t="n">
-        <v>1166450.12</v>
+        <v>1166450.88</v>
       </c>
       <c r="C659" t="n">
-        <v>1166450.12</v>
+        <v>1166450.88</v>
       </c>
     </row>
     <row r="660">
@@ -14702,10 +14702,10 @@
         <v>44866</v>
       </c>
       <c r="B660" t="n">
-        <v>1182560.52</v>
+        <v>1182559.74</v>
       </c>
       <c r="C660" t="n">
-        <v>1182560.52</v>
+        <v>1182559.74</v>
       </c>
     </row>
     <row r="661">
@@ -14724,10 +14724,10 @@
         <v>44927</v>
       </c>
       <c r="B662" t="n">
-        <v>1200988.21</v>
+        <v>1200987.99</v>
       </c>
       <c r="C662" t="n">
-        <v>1200988.21</v>
+        <v>1200987.99</v>
       </c>
     </row>
     <row r="663">
@@ -14735,10 +14735,10 @@
         <v>44958</v>
       </c>
       <c r="B663" t="n">
-        <v>1205244.71</v>
+        <v>1205245.27</v>
       </c>
       <c r="C663" t="n">
-        <v>1205244.71</v>
+        <v>1205245.27</v>
       </c>
     </row>
     <row r="664">
@@ -14746,10 +14746,10 @@
         <v>44986</v>
       </c>
       <c r="B664" t="n">
-        <v>1222516.8</v>
+        <v>1222516.82</v>
       </c>
       <c r="C664" t="n">
-        <v>1222516.8</v>
+        <v>1222516.82</v>
       </c>
     </row>
     <row r="665">
@@ -14757,10 +14757,10 @@
         <v>45017</v>
       </c>
       <c r="B665" t="n">
-        <v>1234457.79</v>
+        <v>1234456.94</v>
       </c>
       <c r="C665" t="n">
-        <v>1234457.79</v>
+        <v>1234456.94</v>
       </c>
     </row>
     <row r="666">
@@ -14768,10 +14768,10 @@
         <v>45047</v>
       </c>
       <c r="B666" t="n">
-        <v>1241882.1</v>
+        <v>1241882.33</v>
       </c>
       <c r="C666" t="n">
-        <v>1241882.1</v>
+        <v>1241882.33</v>
       </c>
     </row>
     <row r="667">
@@ -14779,10 +14779,10 @@
         <v>45078</v>
       </c>
       <c r="B667" t="n">
-        <v>1247752.93</v>
+        <v>1247752.95</v>
       </c>
       <c r="C667" t="n">
-        <v>1247752.93</v>
+        <v>1247752.95</v>
       </c>
     </row>
     <row r="668">
@@ -14790,10 +14790,10 @@
         <v>45108</v>
       </c>
       <c r="B668" t="n">
-        <v>1256257.38</v>
+        <v>1256258.08</v>
       </c>
       <c r="C668" t="n">
-        <v>1256257.38</v>
+        <v>1256258.08</v>
       </c>
     </row>
     <row r="669">
@@ -14801,10 +14801,10 @@
         <v>45139</v>
       </c>
       <c r="B669" t="n">
-        <v>1270866.98</v>
+        <v>1270866.74</v>
       </c>
       <c r="C669" t="n">
-        <v>1270866.98</v>
+        <v>1270866.74</v>
       </c>
     </row>
     <row r="670">
@@ -14812,10 +14812,10 @@
         <v>45170</v>
       </c>
       <c r="B670" t="n">
-        <v>1276945.1</v>
+        <v>1276945.06</v>
       </c>
       <c r="C670" t="n">
-        <v>1276945.1</v>
+        <v>1276945.06</v>
       </c>
     </row>
     <row r="671">
@@ -14823,10 +14823,10 @@
         <v>45200</v>
       </c>
       <c r="B671" t="n">
-        <v>1280719.35</v>
+        <v>1280720.18</v>
       </c>
       <c r="C671" t="n">
-        <v>1280719.35</v>
+        <v>1280720.18</v>
       </c>
     </row>
     <row r="672">
@@ -14834,10 +14834,10 @@
         <v>45231</v>
       </c>
       <c r="B672" t="n">
-        <v>1299363.55</v>
+        <v>1299364.41</v>
       </c>
       <c r="C672" t="n">
-        <v>1299363.55</v>
+        <v>1299364.41</v>
       </c>
     </row>
     <row r="673">
@@ -14845,10 +14845,10 @@
         <v>45261</v>
       </c>
       <c r="B673" t="n">
-        <v>1298865.88</v>
+        <v>1298865.89</v>
       </c>
       <c r="C673" t="n">
-        <v>1298865.88</v>
+        <v>1298865.89</v>
       </c>
     </row>
     <row r="674">
@@ -14856,10 +14856,10 @@
         <v>45292</v>
       </c>
       <c r="B674" t="n">
-        <v>1310033.68</v>
+        <v>1310033.54</v>
       </c>
       <c r="C674" t="n">
-        <v>1310033.68</v>
+        <v>1310033.54</v>
       </c>
     </row>
     <row r="675">
@@ -14867,10 +14867,10 @@
         <v>45323</v>
       </c>
       <c r="B675" t="n">
-        <v>1320172.67</v>
+        <v>1320172.41</v>
       </c>
       <c r="C675" t="n">
-        <v>1320172.67</v>
+        <v>1320172.41</v>
       </c>
     </row>
     <row r="676">
@@ -14878,10 +14878,10 @@
         <v>45352</v>
       </c>
       <c r="B676" t="n">
-        <v>1322156.83</v>
+        <v>1322156.8</v>
       </c>
       <c r="C676" t="n">
-        <v>1322156.83</v>
+        <v>1322156.8</v>
       </c>
     </row>
     <row r="677">
@@ -14889,10 +14889,10 @@
         <v>45383</v>
       </c>
       <c r="B677" t="n">
-        <v>1324875.93</v>
+        <v>1324876.54</v>
       </c>
       <c r="C677" t="n">
-        <v>1324875.93</v>
+        <v>1324876.54</v>
       </c>
     </row>
     <row r="678">
@@ -14900,10 +14900,10 @@
         <v>45413</v>
       </c>
       <c r="B678" t="n">
-        <v>1331663.85</v>
+        <v>1331664.15</v>
       </c>
       <c r="C678" t="n">
-        <v>1331663.85</v>
+        <v>1331664.15</v>
       </c>
     </row>
     <row r="679">
@@ -14911,10 +14911,10 @@
         <v>45444</v>
       </c>
       <c r="B679" t="n">
-        <v>1330645.56</v>
+        <v>1330645.54</v>
       </c>
       <c r="C679" t="n">
-        <v>1330645.56</v>
+        <v>1330645.54</v>
       </c>
     </row>
     <row r="680">
@@ -14922,10 +14922,10 @@
         <v>45474</v>
       </c>
       <c r="B680" t="n">
-        <v>1338290.47</v>
+        <v>1338289.48</v>
       </c>
       <c r="C680" t="n">
-        <v>1338290.47</v>
+        <v>1338289.48</v>
       </c>
     </row>
     <row r="681">
@@ -14933,10 +14933,10 @@
         <v>45505</v>
       </c>
       <c r="B681" t="n">
-        <v>1338716.84</v>
+        <v>1338717.06</v>
       </c>
       <c r="C681" t="n">
-        <v>1338716.84</v>
+        <v>1338717.06</v>
       </c>
     </row>
     <row r="682">
@@ -14944,10 +14944,10 @@
         <v>45536</v>
       </c>
       <c r="B682" t="n">
-        <v>1341182.02</v>
+        <v>1341182.07</v>
       </c>
       <c r="C682" t="n">
-        <v>1341182.02</v>
+        <v>1341182.07</v>
       </c>
     </row>
     <row r="683">
@@ -14955,10 +14955,10 @@
         <v>45566</v>
       </c>
       <c r="B683" t="n">
-        <v>1350299.53</v>
+        <v>1350299.02</v>
       </c>
       <c r="C683" t="n">
-        <v>1350299.53</v>
+        <v>1350299.02</v>
       </c>
     </row>
     <row r="684">
@@ -14966,10 +14966,10 @@
         <v>45597</v>
       </c>
       <c r="B684" t="n">
-        <v>1339076.22</v>
+        <v>1339075</v>
       </c>
       <c r="C684" t="n">
-        <v>1339076.22</v>
+        <v>1339075</v>
       </c>
     </row>
     <row r="685">
@@ -14977,10 +14977,10 @@
         <v>45627</v>
       </c>
       <c r="B685" t="n">
-        <v>1296965.6</v>
+        <v>1296965.56</v>
       </c>
       <c r="C685" t="n">
-        <v>1296965.6</v>
+        <v>1296965.56</v>
       </c>
     </row>
     <row r="686">
@@ -14988,10 +14988,10 @@
         <v>45658</v>
       </c>
       <c r="B686" t="n">
-        <v>1304256.72</v>
+        <v>1304262.54</v>
       </c>
       <c r="C686" t="n">
-        <v>1304256.72</v>
+        <v>1304262.54</v>
       </c>
     </row>
     <row r="687">
@@ -14999,10 +14999,10 @@
         <v>45689</v>
       </c>
       <c r="B687" t="n">
-        <v>1305490.61</v>
+        <v>1305504.87</v>
       </c>
       <c r="C687" t="n">
-        <v>1305490.61</v>
+        <v>1305504.87</v>
       </c>
     </row>
     <row r="688">
@@ -15010,10 +15010,10 @@
         <v>45717</v>
       </c>
       <c r="B688" t="n">
-        <v>1294474.41</v>
+        <v>1294474.35</v>
       </c>
       <c r="C688" t="n">
-        <v>1294474.41</v>
+        <v>1294474.35</v>
       </c>
     </row>
     <row r="689">
@@ -15021,10 +15021,10 @@
         <v>45748</v>
       </c>
       <c r="B689" t="n">
-        <v>1301501.81</v>
+        <v>1301496.38</v>
       </c>
       <c r="C689" t="n">
-        <v>1301501.81</v>
+        <v>1301496.38</v>
       </c>
     </row>
     <row r="690">
@@ -15032,10 +15032,10 @@
         <v>45778</v>
       </c>
       <c r="B690" t="n">
-        <v>1300227.79</v>
+        <v>1300226.33</v>
       </c>
       <c r="C690" t="n">
-        <v>1300227.79</v>
+        <v>1300226.33</v>
       </c>
     </row>
     <row r="691">
@@ -15043,10 +15043,10 @@
         <v>45809</v>
       </c>
       <c r="B691" t="n">
-        <v>1300318.03</v>
+        <v>1300318</v>
       </c>
       <c r="C691" t="n">
-        <v>1300318.03</v>
+        <v>1300318</v>
       </c>
     </row>
     <row r="692">
@@ -15054,10 +15054,10 @@
         <v>45839</v>
       </c>
       <c r="B692" t="n">
-        <v>1311382.25</v>
+        <v>1311125.87</v>
       </c>
       <c r="C692" t="n">
-        <v>1311382.25</v>
+        <v>1311125.87</v>
       </c>
     </row>
     <row r="693">
@@ -15065,10 +15065,10 @@
         <v>45870</v>
       </c>
       <c r="B693" t="n">
-        <v>1307069.95</v>
+        <v>1306556.8</v>
       </c>
       <c r="C693" t="n">
-        <v>1307069.95</v>
+        <v>1306556.8</v>
       </c>
     </row>
     <row r="694">
@@ -15076,10 +15076,10 @@
         <v>45901</v>
       </c>
       <c r="B694" t="n">
-        <v>1311374.14</v>
+        <v>1310561.68</v>
       </c>
       <c r="C694" t="n">
-        <v>1311374.14</v>
+        <v>1310561.68</v>
       </c>
     </row>
     <row r="695">
@@ -15087,10 +15087,21 @@
         <v>45931</v>
       </c>
       <c r="B695" t="n">
-        <v>1316780.92</v>
+        <v>1315961.59</v>
       </c>
       <c r="C695" t="n">
-        <v>1316780.92</v>
+        <v>1315961.59</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="2" t="n">
+        <v>45962</v>
+      </c>
+      <c r="B696" t="n">
+        <v>1313920.25</v>
+      </c>
+      <c r="C696" t="n">
+        <v>1313920.25</v>
       </c>
     </row>
   </sheetData>

--- a/macro_credit_timeseries.xlsx
+++ b/macro_credit_timeseries.xlsx
@@ -18451,7 +18451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C936"/>
+  <dimension ref="A1:C937"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28227,10 +28227,10 @@
         <v>44501</v>
       </c>
       <c r="B888" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="C888" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="889">
@@ -28260,10 +28260,10 @@
         <v>44593</v>
       </c>
       <c r="B891" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="C891" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="892">
@@ -28469,10 +28469,10 @@
         <v>45170</v>
       </c>
       <c r="B910" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="C910" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="911">
@@ -28557,10 +28557,10 @@
         <v>45413</v>
       </c>
       <c r="B918" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="C918" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="919">
@@ -28656,10 +28656,10 @@
         <v>45689</v>
       </c>
       <c r="B927" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="C927" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="928">
@@ -28689,10 +28689,10 @@
         <v>45778</v>
       </c>
       <c r="B930" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="C930" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="931">
@@ -28711,10 +28711,10 @@
         <v>45839</v>
       </c>
       <c r="B932" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="C932" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="933">
@@ -28751,10 +28751,21 @@
         <v>45962</v>
       </c>
       <c r="B936" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="C936" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" s="2" t="n">
+        <v>45992</v>
+      </c>
+      <c r="B937" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="C937" t="n">
+        <v>4.4</v>
       </c>
     </row>
   </sheetData>

--- a/macro_credit_timeseries.xlsx
+++ b/macro_credit_timeseries.xlsx
@@ -3831,7 +3831,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C183"/>
+  <dimension ref="A1:C184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3860,1101 +3860,701 @@
       <c r="A2" s="2" t="n">
         <v>29221</v>
       </c>
-      <c r="B2" t="n">
-        <v>10.608892</v>
-      </c>
-      <c r="C2" t="n">
-        <v>10.608892</v>
-      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
         <v>29312</v>
       </c>
-      <c r="B3" t="n">
-        <v>10.629809</v>
-      </c>
-      <c r="C3" t="n">
-        <v>10.629809</v>
-      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
         <v>29403</v>
       </c>
-      <c r="B4" t="n">
-        <v>10.402635</v>
-      </c>
-      <c r="C4" t="n">
-        <v>10.402635</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
         <v>29495</v>
       </c>
-      <c r="B5" t="n">
-        <v>10.253121</v>
-      </c>
-      <c r="C5" t="n">
-        <v>10.253121</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
         <v>29587</v>
       </c>
-      <c r="B6" t="n">
-        <v>10.291887</v>
-      </c>
-      <c r="C6" t="n">
-        <v>10.291887</v>
-      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
         <v>29677</v>
       </c>
-      <c r="B7" t="n">
-        <v>10.424711</v>
-      </c>
-      <c r="C7" t="n">
-        <v>10.424711</v>
-      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
         <v>29768</v>
       </c>
-      <c r="B8" t="n">
-        <v>10.316158</v>
-      </c>
-      <c r="C8" t="n">
-        <v>10.316158</v>
-      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
         <v>29860</v>
       </c>
-      <c r="B9" t="n">
-        <v>10.392583</v>
-      </c>
-      <c r="C9" t="n">
-        <v>10.392583</v>
-      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
         <v>29952</v>
       </c>
-      <c r="B10" t="n">
-        <v>10.461082</v>
-      </c>
-      <c r="C10" t="n">
-        <v>10.461082</v>
-      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
         <v>30042</v>
       </c>
-      <c r="B11" t="n">
-        <v>10.515989</v>
-      </c>
-      <c r="C11" t="n">
-        <v>10.515989</v>
-      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
         <v>30133</v>
       </c>
-      <c r="B12" t="n">
-        <v>10.418289</v>
-      </c>
-      <c r="C12" t="n">
-        <v>10.418289</v>
-      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
         <v>30225</v>
       </c>
-      <c r="B13" t="n">
-        <v>10.383283</v>
-      </c>
-      <c r="C13" t="n">
-        <v>10.383283</v>
-      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
         <v>30317</v>
       </c>
-      <c r="B14" t="n">
-        <v>10.345889</v>
-      </c>
-      <c r="C14" t="n">
-        <v>10.345889</v>
-      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
         <v>30407</v>
       </c>
-      <c r="B15" t="n">
-        <v>10.37106</v>
-      </c>
-      <c r="C15" t="n">
-        <v>10.37106</v>
-      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
         <v>30498</v>
       </c>
-      <c r="B16" t="n">
-        <v>10.377321</v>
-      </c>
-      <c r="C16" t="n">
-        <v>10.377321</v>
-      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
         <v>30590</v>
       </c>
-      <c r="B17" t="n">
-        <v>10.427236</v>
-      </c>
-      <c r="C17" t="n">
-        <v>10.427236</v>
-      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
         <v>30682</v>
       </c>
-      <c r="B18" t="n">
-        <v>10.489086</v>
-      </c>
-      <c r="C18" t="n">
-        <v>10.489086</v>
-      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
         <v>30773</v>
       </c>
-      <c r="B19" t="n">
-        <v>10.623422</v>
-      </c>
-      <c r="C19" t="n">
-        <v>10.623422</v>
-      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
         <v>30864</v>
       </c>
-      <c r="B20" t="n">
-        <v>10.736276</v>
-      </c>
-      <c r="C20" t="n">
-        <v>10.736276</v>
-      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
         <v>30956</v>
       </c>
-      <c r="B21" t="n">
-        <v>10.894821</v>
-      </c>
-      <c r="C21" t="n">
-        <v>10.894821</v>
-      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
         <v>31048</v>
       </c>
-      <c r="B22" t="n">
-        <v>11.235038</v>
-      </c>
-      <c r="C22" t="n">
-        <v>11.235038</v>
-      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
         <v>31138</v>
       </c>
-      <c r="B23" t="n">
-        <v>11.320013</v>
-      </c>
-      <c r="C23" t="n">
-        <v>11.320013</v>
-      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
         <v>31229</v>
       </c>
-      <c r="B24" t="n">
-        <v>11.60099</v>
-      </c>
-      <c r="C24" t="n">
-        <v>11.60099</v>
-      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
         <v>31321</v>
       </c>
-      <c r="B25" t="n">
-        <v>11.72598</v>
-      </c>
-      <c r="C25" t="n">
-        <v>11.72598</v>
-      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
         <v>31413</v>
       </c>
-      <c r="B26" t="n">
-        <v>11.735722</v>
-      </c>
-      <c r="C26" t="n">
-        <v>11.735722</v>
-      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
         <v>31503</v>
       </c>
-      <c r="B27" t="n">
-        <v>11.810776</v>
-      </c>
-      <c r="C27" t="n">
-        <v>11.810776</v>
-      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
         <v>31594</v>
       </c>
-      <c r="B28" t="n">
-        <v>11.925098</v>
-      </c>
-      <c r="C28" t="n">
-        <v>11.925098</v>
-      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
         <v>31686</v>
       </c>
-      <c r="B29" t="n">
-        <v>12.086648</v>
-      </c>
-      <c r="C29" t="n">
-        <v>12.086648</v>
-      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
         <v>31778</v>
       </c>
-      <c r="B30" t="n">
-        <v>11.976906</v>
-      </c>
-      <c r="C30" t="n">
-        <v>11.976906</v>
-      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
         <v>31868</v>
       </c>
-      <c r="B31" t="n">
-        <v>12.125118</v>
-      </c>
-      <c r="C31" t="n">
-        <v>12.125118</v>
-      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
         <v>31959</v>
       </c>
-      <c r="B32" t="n">
-        <v>11.996017</v>
-      </c>
-      <c r="C32" t="n">
-        <v>11.996017</v>
-      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
         <v>32051</v>
       </c>
-      <c r="B33" t="n">
-        <v>11.851825</v>
-      </c>
-      <c r="C33" t="n">
-        <v>11.851825</v>
-      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
         <v>32143</v>
       </c>
-      <c r="B34" t="n">
-        <v>11.777922</v>
-      </c>
-      <c r="C34" t="n">
-        <v>11.777922</v>
-      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
         <v>32234</v>
       </c>
-      <c r="B35" t="n">
-        <v>11.74815</v>
-      </c>
-      <c r="C35" t="n">
-        <v>11.74815</v>
-      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
         <v>32325</v>
       </c>
-      <c r="B36" t="n">
-        <v>11.697093</v>
-      </c>
-      <c r="C36" t="n">
-        <v>11.697093</v>
-      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
         <v>32417</v>
       </c>
-      <c r="B37" t="n">
-        <v>11.573993</v>
-      </c>
-      <c r="C37" t="n">
-        <v>11.573993</v>
-      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
         <v>32509</v>
       </c>
-      <c r="B38" t="n">
-        <v>11.577244</v>
-      </c>
-      <c r="C38" t="n">
-        <v>11.577244</v>
-      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
         <v>32599</v>
       </c>
-      <c r="B39" t="n">
-        <v>11.74696</v>
-      </c>
-      <c r="C39" t="n">
-        <v>11.74696</v>
-      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
         <v>32690</v>
       </c>
-      <c r="B40" t="n">
-        <v>11.810156</v>
-      </c>
-      <c r="C40" t="n">
-        <v>11.810156</v>
-      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
         <v>32782</v>
       </c>
-      <c r="B41" t="n">
-        <v>11.760331</v>
-      </c>
-      <c r="C41" t="n">
-        <v>11.760331</v>
-      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
         <v>32874</v>
       </c>
-      <c r="B42" t="n">
-        <v>11.65986</v>
-      </c>
-      <c r="C42" t="n">
-        <v>11.65986</v>
-      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
         <v>32964</v>
       </c>
-      <c r="B43" t="n">
-        <v>11.606506</v>
-      </c>
-      <c r="C43" t="n">
-        <v>11.606506</v>
-      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
         <v>33055</v>
       </c>
-      <c r="B44" t="n">
-        <v>11.583384</v>
-      </c>
-      <c r="C44" t="n">
-        <v>11.583384</v>
-      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
         <v>33147</v>
       </c>
-      <c r="B45" t="n">
-        <v>11.598423</v>
-      </c>
-      <c r="C45" t="n">
-        <v>11.598423</v>
-      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
         <v>33239</v>
       </c>
-      <c r="B46" t="n">
-        <v>11.565484</v>
-      </c>
-      <c r="C46" t="n">
-        <v>11.565484</v>
-      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
         <v>33329</v>
       </c>
-      <c r="B47" t="n">
-        <v>11.419594</v>
-      </c>
-      <c r="C47" t="n">
-        <v>11.419594</v>
-      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
         <v>33420</v>
       </c>
-      <c r="B48" t="n">
-        <v>11.306831</v>
-      </c>
-      <c r="C48" t="n">
-        <v>11.306831</v>
-      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
         <v>33512</v>
       </c>
-      <c r="B49" t="n">
-        <v>11.110772</v>
-      </c>
-      <c r="C49" t="n">
-        <v>11.110772</v>
-      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
         <v>33604</v>
       </c>
-      <c r="B50" t="n">
-        <v>10.858007</v>
-      </c>
-      <c r="C50" t="n">
-        <v>10.858007</v>
-      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
         <v>33695</v>
       </c>
-      <c r="B51" t="n">
-        <v>10.688985</v>
-      </c>
-      <c r="C51" t="n">
-        <v>10.688985</v>
-      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
         <v>33786</v>
       </c>
-      <c r="B52" t="n">
-        <v>10.551259</v>
-      </c>
-      <c r="C52" t="n">
-        <v>10.551259</v>
-      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
         <v>33878</v>
       </c>
-      <c r="B53" t="n">
-        <v>10.467593</v>
-      </c>
-      <c r="C53" t="n">
-        <v>10.467593</v>
-      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
         <v>33970</v>
       </c>
-      <c r="B54" t="n">
-        <v>10.430733</v>
-      </c>
-      <c r="C54" t="n">
-        <v>10.430733</v>
-      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
         <v>34060</v>
       </c>
-      <c r="B55" t="n">
-        <v>10.365702</v>
-      </c>
-      <c r="C55" t="n">
-        <v>10.365702</v>
-      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
         <v>34151</v>
       </c>
-      <c r="B56" t="n">
-        <v>10.417195</v>
-      </c>
-      <c r="C56" t="n">
-        <v>10.417195</v>
-      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
         <v>34243</v>
       </c>
-      <c r="B57" t="n">
-        <v>10.380138</v>
-      </c>
-      <c r="C57" t="n">
-        <v>10.380138</v>
-      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
         <v>34335</v>
       </c>
-      <c r="B58" t="n">
-        <v>10.401077</v>
-      </c>
-      <c r="C58" t="n">
-        <v>10.401077</v>
-      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
         <v>34425</v>
       </c>
-      <c r="B59" t="n">
-        <v>10.466155</v>
-      </c>
-      <c r="C59" t="n">
-        <v>10.466155</v>
-      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
         <v>34516</v>
       </c>
-      <c r="B60" t="n">
-        <v>10.60019</v>
-      </c>
-      <c r="C60" t="n">
-        <v>10.60019</v>
-      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
         <v>34608</v>
       </c>
-      <c r="B61" t="n">
-        <v>10.713335</v>
-      </c>
-      <c r="C61" t="n">
-        <v>10.713335</v>
-      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
         <v>34700</v>
       </c>
-      <c r="B62" t="n">
-        <v>10.903623</v>
-      </c>
-      <c r="C62" t="n">
-        <v>10.903623</v>
-      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
         <v>34790</v>
       </c>
-      <c r="B63" t="n">
-        <v>11.096832</v>
-      </c>
-      <c r="C63" t="n">
-        <v>11.096832</v>
-      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
         <v>34881</v>
       </c>
-      <c r="B64" t="n">
-        <v>11.203198</v>
-      </c>
-      <c r="C64" t="n">
-        <v>11.203198</v>
-      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
         <v>34973</v>
       </c>
-      <c r="B65" t="n">
-        <v>11.242819</v>
-      </c>
-      <c r="C65" t="n">
-        <v>11.242819</v>
-      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
         <v>35065</v>
       </c>
-      <c r="B66" t="n">
-        <v>11.263491</v>
-      </c>
-      <c r="C66" t="n">
-        <v>11.263491</v>
-      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
         <v>35156</v>
       </c>
-      <c r="B67" t="n">
-        <v>11.292664</v>
-      </c>
-      <c r="C67" t="n">
-        <v>11.292664</v>
-      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
         <v>35247</v>
       </c>
-      <c r="B68" t="n">
-        <v>11.341343</v>
-      </c>
-      <c r="C68" t="n">
-        <v>11.341343</v>
-      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
         <v>35339</v>
       </c>
-      <c r="B69" t="n">
-        <v>11.400413</v>
-      </c>
-      <c r="C69" t="n">
-        <v>11.400413</v>
-      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
         <v>35431</v>
       </c>
-      <c r="B70" t="n">
-        <v>11.36194</v>
-      </c>
-      <c r="C70" t="n">
-        <v>11.36194</v>
-      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
         <v>35521</v>
       </c>
-      <c r="B71" t="n">
-        <v>11.364968</v>
-      </c>
-      <c r="C71" t="n">
-        <v>11.364968</v>
-      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
         <v>35612</v>
       </c>
-      <c r="B72" t="n">
-        <v>11.373444</v>
-      </c>
-      <c r="C72" t="n">
-        <v>11.373444</v>
-      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
         <v>35704</v>
       </c>
-      <c r="B73" t="n">
-        <v>11.323085</v>
-      </c>
-      <c r="C73" t="n">
-        <v>11.323085</v>
-      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
         <v>35796</v>
       </c>
-      <c r="B74" t="n">
-        <v>11.176228</v>
-      </c>
-      <c r="C74" t="n">
-        <v>11.176228</v>
-      </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
         <v>35886</v>
       </c>
-      <c r="B75" t="n">
-        <v>11.195718</v>
-      </c>
-      <c r="C75" t="n">
-        <v>11.195718</v>
-      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
         <v>35977</v>
       </c>
-      <c r="B76" t="n">
-        <v>11.183267</v>
-      </c>
-      <c r="C76" t="n">
-        <v>11.183267</v>
-      </c>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
         <v>36069</v>
       </c>
-      <c r="B77" t="n">
-        <v>11.2519</v>
-      </c>
-      <c r="C77" t="n">
-        <v>11.2519</v>
-      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
         <v>36161</v>
       </c>
-      <c r="B78" t="n">
-        <v>11.306154</v>
-      </c>
-      <c r="C78" t="n">
-        <v>11.306154</v>
-      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
         <v>36251</v>
       </c>
-      <c r="B79" t="n">
-        <v>11.474377</v>
-      </c>
-      <c r="C79" t="n">
-        <v>11.474377</v>
-      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
         <v>36342</v>
       </c>
-      <c r="B80" t="n">
-        <v>11.593912</v>
-      </c>
-      <c r="C80" t="n">
-        <v>11.593912</v>
-      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
         <v>36434</v>
       </c>
-      <c r="B81" t="n">
-        <v>11.602639</v>
-      </c>
-      <c r="C81" t="n">
-        <v>11.602639</v>
-      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
         <v>36526</v>
       </c>
-      <c r="B82" t="n">
-        <v>11.581974</v>
-      </c>
-      <c r="C82" t="n">
-        <v>11.581974</v>
-      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
         <v>36617</v>
       </c>
-      <c r="B83" t="n">
-        <v>11.727593</v>
-      </c>
-      <c r="C83" t="n">
-        <v>11.727593</v>
-      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
         <v>36708</v>
       </c>
-      <c r="B84" t="n">
-        <v>11.883636</v>
-      </c>
-      <c r="C84" t="n">
-        <v>11.883636</v>
-      </c>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
         <v>36800</v>
       </c>
-      <c r="B85" t="n">
-        <v>12.07207</v>
-      </c>
-      <c r="C85" t="n">
-        <v>12.07207</v>
-      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
         <v>36892</v>
       </c>
-      <c r="B86" t="n">
-        <v>12.175219</v>
-      </c>
-      <c r="C86" t="n">
-        <v>12.175219</v>
-      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
         <v>36982</v>
       </c>
-      <c r="B87" t="n">
-        <v>12.386421</v>
-      </c>
-      <c r="C87" t="n">
-        <v>12.386421</v>
-      </c>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
         <v>37073</v>
       </c>
-      <c r="B88" t="n">
-        <v>12.329806</v>
-      </c>
-      <c r="C88" t="n">
-        <v>12.329806</v>
-      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
         <v>37165</v>
       </c>
-      <c r="B89" t="n">
-        <v>12.682582</v>
-      </c>
-      <c r="C89" t="n">
-        <v>12.682582</v>
-      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
         <v>37257</v>
       </c>
-      <c r="B90" t="n">
-        <v>12.456402</v>
-      </c>
-      <c r="C90" t="n">
-        <v>12.456402</v>
-      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
         <v>37347</v>
       </c>
-      <c r="B91" t="n">
-        <v>12.362782</v>
-      </c>
-      <c r="C91" t="n">
-        <v>12.362782</v>
-      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
         <v>37438</v>
       </c>
-      <c r="B92" t="n">
-        <v>12.374393</v>
-      </c>
-      <c r="C92" t="n">
-        <v>12.374393</v>
-      </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
         <v>37530</v>
       </c>
-      <c r="B93" t="n">
-        <v>12.341276</v>
-      </c>
-      <c r="C93" t="n">
-        <v>12.341276</v>
-      </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
         <v>37622</v>
       </c>
-      <c r="B94" t="n">
-        <v>12.358857</v>
-      </c>
-      <c r="C94" t="n">
-        <v>12.358857</v>
-      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
         <v>37712</v>
       </c>
-      <c r="B95" t="n">
-        <v>12.29993</v>
-      </c>
-      <c r="C95" t="n">
-        <v>12.29993</v>
-      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
         <v>37803</v>
       </c>
-      <c r="B96" t="n">
-        <v>12.144751</v>
-      </c>
-      <c r="C96" t="n">
-        <v>12.144751</v>
-      </c>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
         <v>37895</v>
       </c>
-      <c r="B97" t="n">
-        <v>12.215914</v>
-      </c>
-      <c r="C97" t="n">
-        <v>12.215914</v>
-      </c>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
         <v>37987</v>
       </c>
-      <c r="B98" t="n">
-        <v>12.219274</v>
-      </c>
-      <c r="C98" t="n">
-        <v>12.219274</v>
-      </c>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
         <v>38078</v>
       </c>
-      <c r="B99" t="n">
-        <v>12.157168</v>
-      </c>
-      <c r="C99" t="n">
-        <v>12.157168</v>
-      </c>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
         <v>38169</v>
       </c>
-      <c r="B100" t="n">
-        <v>12.272636</v>
-      </c>
-      <c r="C100" t="n">
-        <v>12.272636</v>
-      </c>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
         <v>38261</v>
       </c>
-      <c r="B101" t="n">
-        <v>12.277015</v>
-      </c>
-      <c r="C101" t="n">
-        <v>12.277015</v>
-      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -5467,10 +5067,10 @@
         <v>42552</v>
       </c>
       <c r="B148" t="n">
-        <v>11.769825</v>
+        <v>11.769828</v>
       </c>
       <c r="C148" t="n">
-        <v>11.769825</v>
+        <v>11.769828</v>
       </c>
     </row>
     <row r="149">
@@ -5478,10 +5078,10 @@
         <v>42644</v>
       </c>
       <c r="B149" t="n">
-        <v>11.865788</v>
+        <v>11.865791</v>
       </c>
       <c r="C149" t="n">
-        <v>11.865788</v>
+        <v>11.865791</v>
       </c>
     </row>
     <row r="150">
@@ -5489,10 +5089,10 @@
         <v>42736</v>
       </c>
       <c r="B150" t="n">
-        <v>11.723732</v>
+        <v>11.723736</v>
       </c>
       <c r="C150" t="n">
-        <v>11.723732</v>
+        <v>11.723736</v>
       </c>
     </row>
     <row r="151">
@@ -5610,10 +5210,10 @@
         <v>43739</v>
       </c>
       <c r="B161" t="n">
-        <v>11.727526</v>
+        <v>11.727541</v>
       </c>
       <c r="C161" t="n">
-        <v>11.727526</v>
+        <v>11.727541</v>
       </c>
     </row>
     <row r="162">
@@ -5621,10 +5221,10 @@
         <v>43831</v>
       </c>
       <c r="B162" t="n">
-        <v>11.587379</v>
+        <v>11.591065</v>
       </c>
       <c r="C162" t="n">
-        <v>11.587379</v>
+        <v>11.591065</v>
       </c>
     </row>
     <row r="163">
@@ -5632,10 +5232,10 @@
         <v>43922</v>
       </c>
       <c r="B163" t="n">
-        <v>9.739371999999999</v>
+        <v>9.739786</v>
       </c>
       <c r="C163" t="n">
-        <v>9.739371999999999</v>
+        <v>9.739786</v>
       </c>
     </row>
     <row r="164">
@@ -5643,10 +5243,10 @@
         <v>44013</v>
       </c>
       <c r="B164" t="n">
-        <v>10.067065</v>
+        <v>10.058434</v>
       </c>
       <c r="C164" t="n">
-        <v>10.067065</v>
+        <v>10.058434</v>
       </c>
     </row>
     <row r="165">
@@ -5654,10 +5254,10 @@
         <v>44105</v>
       </c>
       <c r="B165" t="n">
-        <v>10.404484</v>
+        <v>10.389279</v>
       </c>
       <c r="C165" t="n">
-        <v>10.404484</v>
+        <v>10.389279</v>
       </c>
     </row>
     <row r="166">
@@ -5665,10 +5265,10 @@
         <v>44197</v>
       </c>
       <c r="B166" t="n">
-        <v>9.084982</v>
+        <v>9.051398000000001</v>
       </c>
       <c r="C166" t="n">
-        <v>9.084982</v>
+        <v>9.051398000000001</v>
       </c>
     </row>
     <row r="167">
@@ -5676,10 +5276,10 @@
         <v>44287</v>
       </c>
       <c r="B167" t="n">
-        <v>9.889169000000001</v>
+        <v>9.840935999999999</v>
       </c>
       <c r="C167" t="n">
-        <v>9.889169000000001</v>
+        <v>9.840935999999999</v>
       </c>
     </row>
     <row r="168">
@@ -5687,10 +5287,10 @@
         <v>44378</v>
       </c>
       <c r="B168" t="n">
-        <v>10.057423</v>
+        <v>10.009535</v>
       </c>
       <c r="C168" t="n">
-        <v>10.057423</v>
+        <v>10.009535</v>
       </c>
     </row>
     <row r="169">
@@ -5698,10 +5298,10 @@
         <v>44470</v>
       </c>
       <c r="B169" t="n">
-        <v>10.281331</v>
+        <v>10.228733</v>
       </c>
       <c r="C169" t="n">
-        <v>10.281331</v>
+        <v>10.228733</v>
       </c>
     </row>
     <row r="170">
@@ -5709,10 +5309,10 @@
         <v>44562</v>
       </c>
       <c r="B170" t="n">
-        <v>10.512948</v>
+        <v>10.47232</v>
       </c>
       <c r="C170" t="n">
-        <v>10.512948</v>
+        <v>10.47232</v>
       </c>
     </row>
     <row r="171">
@@ -5720,10 +5320,10 @@
         <v>44652</v>
       </c>
       <c r="B171" t="n">
-        <v>10.719184</v>
+        <v>10.684637</v>
       </c>
       <c r="C171" t="n">
-        <v>10.719184</v>
+        <v>10.684637</v>
       </c>
     </row>
     <row r="172">
@@ -5731,10 +5331,10 @@
         <v>44743</v>
       </c>
       <c r="B172" t="n">
-        <v>10.598597</v>
+        <v>10.567735</v>
       </c>
       <c r="C172" t="n">
-        <v>10.598597</v>
+        <v>10.567735</v>
       </c>
     </row>
     <row r="173">
@@ -5742,10 +5342,10 @@
         <v>44835</v>
       </c>
       <c r="B173" t="n">
-        <v>10.78019</v>
+        <v>10.736833</v>
       </c>
       <c r="C173" t="n">
-        <v>10.78019</v>
+        <v>10.736833</v>
       </c>
     </row>
     <row r="174">
@@ -5753,10 +5353,10 @@
         <v>44927</v>
       </c>
       <c r="B174" t="n">
-        <v>10.635346</v>
+        <v>10.56399</v>
       </c>
       <c r="C174" t="n">
-        <v>10.635346</v>
+        <v>10.56399</v>
       </c>
     </row>
     <row r="175">
@@ -5764,10 +5364,10 @@
         <v>45017</v>
       </c>
       <c r="B175" t="n">
-        <v>10.675248</v>
+        <v>10.576866</v>
       </c>
       <c r="C175" t="n">
-        <v>10.675248</v>
+        <v>10.576866</v>
       </c>
     </row>
     <row r="176">
@@ -5775,10 +5375,10 @@
         <v>45108</v>
       </c>
       <c r="B176" t="n">
-        <v>10.86617</v>
+        <v>10.747704</v>
       </c>
       <c r="C176" t="n">
-        <v>10.86617</v>
+        <v>10.747704</v>
       </c>
     </row>
     <row r="177">
@@ -5786,10 +5386,10 @@
         <v>45200</v>
       </c>
       <c r="B177" t="n">
-        <v>11.230811</v>
+        <v>11.095984</v>
       </c>
       <c r="C177" t="n">
-        <v>11.230811</v>
+        <v>11.095984</v>
       </c>
     </row>
     <row r="178">
@@ -5797,10 +5397,10 @@
         <v>45292</v>
       </c>
       <c r="B178" t="n">
-        <v>11.160293</v>
+        <v>11.058721</v>
       </c>
       <c r="C178" t="n">
-        <v>11.160293</v>
+        <v>11.058721</v>
       </c>
     </row>
     <row r="179">
@@ -5808,10 +5408,10 @@
         <v>45383</v>
       </c>
       <c r="B179" t="n">
-        <v>11.159186</v>
+        <v>11.019084</v>
       </c>
       <c r="C179" t="n">
-        <v>11.159186</v>
+        <v>11.019084</v>
       </c>
     </row>
     <row r="180">
@@ -5819,10 +5419,10 @@
         <v>45474</v>
       </c>
       <c r="B180" t="n">
-        <v>11.31315</v>
+        <v>11.138535</v>
       </c>
       <c r="C180" t="n">
-        <v>11.31315</v>
+        <v>11.138535</v>
       </c>
     </row>
     <row r="181">
@@ -5830,10 +5430,10 @@
         <v>45566</v>
       </c>
       <c r="B181" t="n">
-        <v>11.286829</v>
+        <v>11.12225</v>
       </c>
       <c r="C181" t="n">
-        <v>11.286829</v>
+        <v>11.12225</v>
       </c>
     </row>
     <row r="182">
@@ -5841,10 +5441,10 @@
         <v>45658</v>
       </c>
       <c r="B182" t="n">
-        <v>11.257759</v>
+        <v>11.10531</v>
       </c>
       <c r="C182" t="n">
-        <v>11.257759</v>
+        <v>11.10531</v>
       </c>
     </row>
     <row r="183">
@@ -5852,10 +5452,21 @@
         <v>45748</v>
       </c>
       <c r="B183" t="n">
-        <v>11.249194</v>
+        <v>11.123837</v>
       </c>
       <c r="C183" t="n">
-        <v>11.249194</v>
+        <v>11.123837</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B184" t="n">
+        <v>11.256338</v>
+      </c>
+      <c r="C184" t="n">
+        <v>11.256338</v>
       </c>
     </row>
   </sheetData>

--- a/macro_credit_timeseries.xlsx
+++ b/macro_credit_timeseries.xlsx
@@ -28390,7 +28390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3080"/>
+  <dimension ref="A1:C3081"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62278,10 +62278,21 @@
         <v>46025</v>
       </c>
       <c r="B3080" t="n">
-        <v>208000</v>
+        <v>207000</v>
       </c>
       <c r="C3080" t="n">
-        <v>208000</v>
+        <v>207000</v>
+      </c>
+    </row>
+    <row r="3081">
+      <c r="A3081" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B3081" t="n">
+        <v>198000</v>
+      </c>
+      <c r="C3081" t="n">
+        <v>198000</v>
       </c>
     </row>
   </sheetData>

--- a/macro_credit_timeseries.xlsx
+++ b/macro_credit_timeseries.xlsx
@@ -62305,7 +62305,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C802"/>
+  <dimension ref="A1:C804"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71113,10 +71113,10 @@
         <v>45839</v>
       </c>
       <c r="B800" t="n">
-        <v>18011.3</v>
+        <v>18009.5</v>
       </c>
       <c r="C800" t="n">
-        <v>18011.3</v>
+        <v>18009.5</v>
       </c>
     </row>
     <row r="801">
@@ -71124,10 +71124,10 @@
         <v>45870</v>
       </c>
       <c r="B801" t="n">
-        <v>18030.5</v>
+        <v>18027.6</v>
       </c>
       <c r="C801" t="n">
-        <v>18030.5</v>
+        <v>18027.6</v>
       </c>
     </row>
     <row r="802">
@@ -71135,10 +71135,32 @@
         <v>45901</v>
       </c>
       <c r="B802" t="n">
-        <v>18040.2</v>
+        <v>18037.9</v>
       </c>
       <c r="C802" t="n">
-        <v>18040.2</v>
+        <v>18037.9</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" s="1" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B803" t="n">
+        <v>18018.7</v>
+      </c>
+      <c r="C803" t="n">
+        <v>18018.7</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" s="1" t="n">
+        <v>45962</v>
+      </c>
+      <c r="B804" t="n">
+        <v>18031.2</v>
+      </c>
+      <c r="C804" t="n">
+        <v>18031.2</v>
       </c>
     </row>
   </sheetData>

--- a/macro_credit_timeseries.xlsx
+++ b/macro_credit_timeseries.xlsx
@@ -28378,7 +28378,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3082"/>
+  <dimension ref="A1:C3083"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62288,10 +62288,21 @@
         <v>46039</v>
       </c>
       <c r="B3082" t="n">
-        <v>200000</v>
+        <v>210000</v>
       </c>
       <c r="C3082" t="n">
-        <v>200000</v>
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="3083">
+      <c r="A3083" s="1" t="n">
+        <v>46046</v>
+      </c>
+      <c r="B3083" t="n">
+        <v>209000</v>
+      </c>
+      <c r="C3083" t="n">
+        <v>209000</v>
       </c>
     </row>
   </sheetData>

--- a/macro_credit_timeseries.xlsx
+++ b/macro_credit_timeseries.xlsx
@@ -28378,7 +28378,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3083"/>
+  <dimension ref="A1:C3084"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62303,6 +62303,17 @@
       </c>
       <c r="C3083" t="n">
         <v>209000</v>
+      </c>
+    </row>
+    <row r="3084">
+      <c r="A3084" s="1" t="n">
+        <v>46053</v>
+      </c>
+      <c r="B3084" t="n">
+        <v>231000</v>
+      </c>
+      <c r="C3084" t="n">
+        <v>231000</v>
       </c>
     </row>
   </sheetData>

--- a/macro_credit_timeseries.xlsx
+++ b/macro_credit_timeseries.xlsx
@@ -14714,7 +14714,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C301"/>
+  <dimension ref="A1:C302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18033,10 +18033,21 @@
         <v>45962</v>
       </c>
       <c r="B301" t="n">
-        <v>7146</v>
+        <v>6928</v>
       </c>
       <c r="C301" t="n">
-        <v>7.146</v>
+        <v>6.928</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>45992</v>
+      </c>
+      <c r="B302" t="n">
+        <v>6542</v>
+      </c>
+      <c r="C302" t="n">
+        <v>6.542</v>
       </c>
     </row>
   </sheetData>

--- a/macro_credit_timeseries.xlsx
+++ b/macro_credit_timeseries.xlsx
@@ -7033,7 +7033,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C696"/>
+  <dimension ref="A1:C697"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14653,10 +14653,10 @@
         <v>45839</v>
       </c>
       <c r="B692" t="n">
-        <v>1311125.87</v>
+        <v>1310909.44</v>
       </c>
       <c r="C692" t="n">
-        <v>1311125.87</v>
+        <v>1310909.44</v>
       </c>
     </row>
     <row r="693">
@@ -14664,10 +14664,10 @@
         <v>45870</v>
       </c>
       <c r="B693" t="n">
-        <v>1306556.8</v>
+        <v>1306123.16</v>
       </c>
       <c r="C693" t="n">
-        <v>1306556.8</v>
+        <v>1306123.16</v>
       </c>
     </row>
     <row r="694">
@@ -14675,10 +14675,10 @@
         <v>45901</v>
       </c>
       <c r="B694" t="n">
-        <v>1310561.68</v>
+        <v>1310561.74</v>
       </c>
       <c r="C694" t="n">
-        <v>1310561.68</v>
+        <v>1310561.74</v>
       </c>
     </row>
     <row r="695">
@@ -14686,10 +14686,10 @@
         <v>45931</v>
       </c>
       <c r="B695" t="n">
-        <v>1315961.59</v>
+        <v>1316400.1</v>
       </c>
       <c r="C695" t="n">
-        <v>1315961.59</v>
+        <v>1316400.1</v>
       </c>
     </row>
     <row r="696">
@@ -14697,10 +14697,21 @@
         <v>45962</v>
       </c>
       <c r="B696" t="n">
-        <v>1313920.25</v>
+        <v>1314713.24</v>
       </c>
       <c r="C696" t="n">
-        <v>1313920.25</v>
+        <v>1314713.24</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="1" t="n">
+        <v>45992</v>
+      </c>
+      <c r="B697" t="n">
+        <v>1328559.61</v>
+      </c>
+      <c r="C697" t="n">
+        <v>1328559.61</v>
       </c>
     </row>
   </sheetData>

--- a/macro_credit_timeseries.xlsx
+++ b/macro_credit_timeseries.xlsx
@@ -18072,7 +18072,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C937"/>
+  <dimension ref="A1:C938"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28389,6 +28389,17 @@
         <v>4.4</v>
       </c>
     </row>
+    <row r="938">
+      <c r="A938" s="1" t="n">
+        <v>46023</v>
+      </c>
+      <c r="B938" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="C938" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -28400,7 +28411,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3084"/>
+  <dimension ref="A1:C3085"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62332,10 +62343,21 @@
         <v>46053</v>
       </c>
       <c r="B3084" t="n">
-        <v>231000</v>
+        <v>232000</v>
       </c>
       <c r="C3084" t="n">
-        <v>231000</v>
+        <v>232000</v>
+      </c>
+    </row>
+    <row r="3085">
+      <c r="A3085" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="B3085" t="n">
+        <v>227000</v>
+      </c>
+      <c r="C3085" t="n">
+        <v>227000</v>
       </c>
     </row>
   </sheetData>

--- a/macro_credit_timeseries.xlsx
+++ b/macro_credit_timeseries.xlsx
@@ -28411,7 +28411,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3085"/>
+  <dimension ref="A1:C3086"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62354,10 +62354,21 @@
         <v>46060</v>
       </c>
       <c r="B3085" t="n">
-        <v>227000</v>
+        <v>229000</v>
       </c>
       <c r="C3085" t="n">
-        <v>227000</v>
+        <v>229000</v>
+      </c>
+    </row>
+    <row r="3086">
+      <c r="A3086" s="1" t="n">
+        <v>46067</v>
+      </c>
+      <c r="B3086" t="n">
+        <v>206000</v>
+      </c>
+      <c r="C3086" t="n">
+        <v>206000</v>
       </c>
     </row>
   </sheetData>

--- a/macro_credit_timeseries.xlsx
+++ b/macro_credit_timeseries.xlsx
@@ -62382,7 +62382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C804"/>
+  <dimension ref="A1:C805"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71223,10 +71223,10 @@
         <v>45931</v>
       </c>
       <c r="B803" t="n">
-        <v>18018.7</v>
+        <v>18014.8</v>
       </c>
       <c r="C803" t="n">
-        <v>18018.7</v>
+        <v>18014.8</v>
       </c>
     </row>
     <row r="804">
@@ -71234,10 +71234,21 @@
         <v>45962</v>
       </c>
       <c r="B804" t="n">
-        <v>18031.2</v>
+        <v>18037.3</v>
       </c>
       <c r="C804" t="n">
-        <v>18031.2</v>
+        <v>18037.3</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" s="1" t="n">
+        <v>45992</v>
+      </c>
+      <c r="B805" t="n">
+        <v>18032.2</v>
+      </c>
+      <c r="C805" t="n">
+        <v>18032.2</v>
       </c>
     </row>
   </sheetData>

--- a/macro_credit_timeseries.xlsx
+++ b/macro_credit_timeseries.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C140"/>
+  <dimension ref="A1:C141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1929,10 +1929,10 @@
         <v>45474</v>
       </c>
       <c r="B136" t="n">
-        <v>3.19</v>
+        <v>3.2</v>
       </c>
       <c r="C136" t="n">
-        <v>3.19</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="137">
@@ -1940,10 +1940,10 @@
         <v>45566</v>
       </c>
       <c r="B137" t="n">
-        <v>3.09</v>
+        <v>3.08</v>
       </c>
       <c r="C137" t="n">
-        <v>3.09</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="138">
@@ -1977,6 +1977,17 @@
       </c>
       <c r="C140" t="n">
         <v>2.98</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B141" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="C141" t="n">
+        <v>2.94</v>
       </c>
     </row>
   </sheetData>
@@ -1990,7 +2001,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C164"/>
+  <dimension ref="A1:C165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3758,10 +3769,10 @@
         <v>45474</v>
       </c>
       <c r="B160" t="n">
-        <v>4.68</v>
+        <v>4.69</v>
       </c>
       <c r="C160" t="n">
-        <v>4.68</v>
+        <v>4.69</v>
       </c>
     </row>
     <row r="161">
@@ -3769,10 +3780,10 @@
         <v>45566</v>
       </c>
       <c r="B161" t="n">
-        <v>4.59</v>
+        <v>4.58</v>
       </c>
       <c r="C161" t="n">
-        <v>4.59</v>
+        <v>4.58</v>
       </c>
     </row>
     <row r="162">
@@ -3802,10 +3813,21 @@
         <v>45839</v>
       </c>
       <c r="B164" t="n">
-        <v>4.17</v>
+        <v>4.18</v>
       </c>
       <c r="C164" t="n">
-        <v>4.17</v>
+        <v>4.18</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B165" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="C165" t="n">
+        <v>4.11</v>
       </c>
     </row>
   </sheetData>
@@ -5468,7 +5490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C140"/>
+  <dimension ref="A1:C141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5817,10 +5839,10 @@
         <v>35886</v>
       </c>
       <c r="B31" t="n">
-        <v>2.12</v>
+        <v>2.13</v>
       </c>
       <c r="C31" t="n">
-        <v>2.12</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="32">
@@ -7005,10 +7027,10 @@
         <v>45748</v>
       </c>
       <c r="B139" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="C139" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="140">
@@ -7019,6 +7041,17 @@
         <v>1.78</v>
       </c>
       <c r="C140" t="n">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="C141" t="n">
         <v>1.78</v>
       </c>
     </row>

--- a/macro_credit_timeseries.xlsx
+++ b/macro_credit_timeseries.xlsx
@@ -28444,7 +28444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3086"/>
+  <dimension ref="A1:C3087"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62398,10 +62398,21 @@
         <v>46067</v>
       </c>
       <c r="B3086" t="n">
-        <v>206000</v>
+        <v>208000</v>
       </c>
       <c r="C3086" t="n">
-        <v>206000</v>
+        <v>208000</v>
+      </c>
+    </row>
+    <row r="3087">
+      <c r="A3087" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="B3087" t="n">
+        <v>212000</v>
+      </c>
+      <c r="C3087" t="n">
+        <v>212000</v>
       </c>
     </row>
   </sheetData>
